--- a/data/clean_strings.xlsx
+++ b/data/clean_strings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1376">
   <si>
     <t>term</t>
   </si>
@@ -2610,6 +2610,1548 @@
   </si>
   <si>
     <t>@FTS</t>
+  </si>
+  <si>
+    <t>lying within the area edged red and tinted blue on the title plan of the above title filed at the Land Registry and level 2 parking space number 39 edged red and tinted yellow on the supplementary title plan</t>
+  </si>
+  <si>
+    <t>lying within the area edged red and tinted blue on the title plan of the above title filed at the Land Registry and level three parking space number 244 edged red and tinted yellow on the supplementary title plan</t>
+  </si>
+  <si>
+    <t>lying within the area edged red and tinted blue on the title plan of the above title filed at the Land Registry and level 2 parking space number 135 edged red and tinted yellow on the supplementary plan</t>
+  </si>
+  <si>
+    <t>lying within the area edged red and tinted blue on the title plan of the above title filed at the Land Registry and level three parking space number 243 edged red and tinted yellow on the supplementary title plan</t>
+  </si>
+  <si>
+    <t>lying within the area edged red and tinted blue on the title plan of the above title filed at the Land Registry and Level 2 parking space number 136 edged red and tinted yellow on the supplementary plan</t>
+  </si>
+  <si>
+    <t>lying within the area edged red and tinted blue on the title plan of the above title filed at the Land Registry and level 2 parking space number 131 edged red and tinted yelow on the supplementary plan</t>
+  </si>
+  <si>
+    <t>lying within the area edged red and tinted blue on the title plan of the above title filed at the Land Registry and level 3 parking space number 242 edged red and tinted yellow on the supplementary title plan</t>
+  </si>
+  <si>
+    <t>lying within the area edged red and tinted blue on the title plan of the above title filed at the Registry and Basement Parking Space edged red and tinted yellow on the said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piran Place shown edged red on the title plan.  The registration of </t>
+  </si>
+  <si>
+    <t>Cargo shown edged red on the title plan.  The registration of plan to the title plan</t>
+  </si>
+  <si>
+    <t>Holburne Place shown edged red on the title plan. The registration of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castlemoat Place shown edged red on the title plan. The registration of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castlemoat Place shown edged red on the title plan.  The registration of </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that part of Level 59 tinted pink on the supplementary plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that part of Level 59 tinted pink on the supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that part of Level 65 tinted pink on the supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and parking spaces includes only those parts of the lower ground and ground floors tinted pink on the supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that part of Level 62 tinted pink on the supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that part of the second floor and parking space tinted pink on the supplemenrary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that part of the second floor tinted pink on the supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that part of the third floor tinted pink on the supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace above the roof of </t>
+  </si>
+  <si>
+    <t>an advertising hoarding at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an advertising hoarding on the west side of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an advertising hoarding, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an advertising hoarding on the north west side of </t>
+  </si>
+  <si>
+    <t>Third floor and basement premises</t>
+  </si>
+  <si>
+    <t>ground and basement premises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the ground floor and basement premises and area being part of </t>
+  </si>
+  <si>
+    <t>ground Floor and basement premises at</t>
+  </si>
+  <si>
+    <t>parking space 152 and storage unit 10</t>
+  </si>
+  <si>
+    <t>and parking spaces 205 and 206 and storage unit 59</t>
+  </si>
+  <si>
+    <t>parking spaces 194 and 195 and storage unit 1</t>
+  </si>
+  <si>
+    <t>and storage unit 10</t>
+  </si>
+  <si>
+    <t>and storage unit 25</t>
+  </si>
+  <si>
+    <t>and storage unit 2</t>
+  </si>
+  <si>
+    <t>and parking space 12 and storage unit 50</t>
+  </si>
+  <si>
+    <t>parking space 46 and storage unit 4</t>
+  </si>
+  <si>
+    <t>and storage unit 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parking space 141 and storage unit 6</t>
+  </si>
+  <si>
+    <t>and parking space 118 and storage unit 16f</t>
+  </si>
+  <si>
+    <t>car parking spaces, The Chilterns, High Wycombe</t>
+  </si>
+  <si>
+    <t>car parking spaces lying to the South of Aire Street, Leeds</t>
+  </si>
+  <si>
+    <t>parking spaces associated with</t>
+  </si>
+  <si>
+    <t>together with garden, parking spaces and binstores</t>
+  </si>
+  <si>
+    <t>parking spaces</t>
+  </si>
+  <si>
+    <t>car parking spaces at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces adjoining </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces on the east side of </t>
+  </si>
+  <si>
+    <t>parking spaces and storage cupboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car parking spaces at </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Ground, First, Second and Third Floors, Plant Room and Roof Level, The Interior of the Basement Boiler Room, Electric, Water and Gas Meter Room and Pump Room, the parking spaces numbered 2/1 to 2/20 known as </t>
+  </si>
+  <si>
+    <t>122 car parking spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car parking spaces at the rear of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces on the south side of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two car parking spaces at </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces lying to the south east of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces at the back of </t>
+  </si>
+  <si>
+    <t>parking spaces 3,4 and 23 and storage room 14</t>
+  </si>
+  <si>
+    <t>parking spaces 758 and 785</t>
+  </si>
+  <si>
+    <t>parking spaces 174, 181, 323, 324 and 835</t>
+  </si>
+  <si>
+    <t>Car parking spaces numbered A8, A9 and A10</t>
+  </si>
+  <si>
+    <t>car parking spaces in underground car park</t>
+  </si>
+  <si>
+    <t>car parking spaces 128 and 129, storage units S21, S22 and S23, and motorcycle spaces M10 and M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces 160, 161, 194, 195 and 221 </t>
+  </si>
+  <si>
+    <t>parking spaces BH001 to BH020 (inclusive) and BH023 to BH040 (inclusive), Brewhouse Yard, parts of parking spaces BH021 and BH022</t>
+  </si>
+  <si>
+    <t>parking spaces lying to the south east of</t>
+  </si>
+  <si>
+    <t>parking spaces adjoining</t>
+  </si>
+  <si>
+    <t>car parking spaces to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parts of the basement, lower ground, ground, first and fourth floors being  the </t>
+  </si>
+  <si>
+    <t>lying within the area edged red and tinted blue on the plan of the above title and filed at the Registry and the parking spaces shown edged red and tinted pink on the said plan</t>
+  </si>
+  <si>
+    <t>parking spaces and garages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 car parking spaces at </t>
+  </si>
+  <si>
+    <t>parking spaces 3 4 7 and 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces to the rear of </t>
+  </si>
+  <si>
+    <t>126 car parking spaces in the multi-storey car park at</t>
+  </si>
+  <si>
+    <t>car parking spaces 19 and 21 and storage space 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car parking spaces 34 to 38, Car Parking Level 1, </t>
+  </si>
+  <si>
+    <t>parking spaces lying to the west of</t>
+  </si>
+  <si>
+    <t>parking spaces 46A and 46AA,</t>
+  </si>
+  <si>
+    <t>parking spaces 107A and 107AA</t>
+  </si>
+  <si>
+    <t>parking spaces 43A and 43AA</t>
+  </si>
+  <si>
+    <t>parking spaces 36, 37 and 38 Car Parking Level 1</t>
+  </si>
+  <si>
+    <t>parking spaces 64, 82, 84a-90a (even) and 95</t>
+  </si>
+  <si>
+    <t>parking spaces at</t>
+  </si>
+  <si>
+    <t>car parking spaces</t>
+  </si>
+  <si>
+    <t>parking spaces 947, 948, 949 &amp; 950</t>
+  </si>
+  <si>
+    <t>parking spaces 540 and 608</t>
+  </si>
+  <si>
+    <t>parking spaces 128-147</t>
+  </si>
+  <si>
+    <t>parking spaces 153, 154, 201 and 202</t>
+  </si>
+  <si>
+    <t>parking spaces and stores</t>
+  </si>
+  <si>
+    <t>65 car parking spaces at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces 164, 165, 190, 191 and 223 </t>
+  </si>
+  <si>
+    <t>undercroft parking spaces</t>
+  </si>
+  <si>
+    <t>and basement parking spaces</t>
+  </si>
+  <si>
+    <t>and upper car parking spaces 86 and 87</t>
+  </si>
+  <si>
+    <t>basement car parking spaces</t>
+  </si>
+  <si>
+    <t>and associated parking spaces</t>
+  </si>
+  <si>
+    <t>parking spaces 47A and 47AA</t>
+  </si>
+  <si>
+    <t>parking spaces 39A and 39AA</t>
+  </si>
+  <si>
+    <t>parking spaces P112, P113 and P114</t>
+  </si>
+  <si>
+    <t>parking spaces 162, 163, 192, 193 and 222</t>
+  </si>
+  <si>
+    <t>parking spaces 166, 167, 188, 189 and 224</t>
+  </si>
+  <si>
+    <t>and two car parking spaces in the basement</t>
+  </si>
+  <si>
+    <t>car parking spaces on the west side of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces 116A and 116AA, </t>
+  </si>
+  <si>
+    <t>car parking spaces and bin storage area</t>
+  </si>
+  <si>
+    <t>and basement level parking spaces</t>
+  </si>
+  <si>
+    <t>and six car parking spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the ground, first, second and third floors, plant room and roof level, the interior of the basement level boiler room, electric, water and gas meter room and pump room, the parking spaces numbered 5/1 to 5/18.  Known as </t>
+  </si>
+  <si>
+    <t>20 car parking spaces on levels B1 and B2 at</t>
+  </si>
+  <si>
+    <t>parking spaces 57 and 58,</t>
+  </si>
+  <si>
+    <t>the ground, first, second and third floors, plant room and roof level, the interior of the basement boiler room, electric, water and gas meter room and pump room, with the parking spaces numbered 3/1 to 3/18 known as</t>
+  </si>
+  <si>
+    <t>South car parking spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces </t>
+  </si>
+  <si>
+    <t>lower ground floor parking spaces and garages</t>
+  </si>
+  <si>
+    <t>parking spaces and bin store</t>
+  </si>
+  <si>
+    <t>parking spaces 42A and 42AA,</t>
+  </si>
+  <si>
+    <t>parking spaces 40A and 40AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car parking spaces lying on the north west side of </t>
+  </si>
+  <si>
+    <t>parking spaces 150, 151, 204 &amp; 205</t>
+  </si>
+  <si>
+    <t>car parking spaces 20 and 20A</t>
+  </si>
+  <si>
+    <t>the ground floor unit, ground and basement level parking spaces and is more particularly defined in the registered lease</t>
+  </si>
+  <si>
+    <t>Basement level B2 car parking spaces 62-73 (inclusive), Basement level B3 car parking spaces 106-119 (inclusive), Basement level B2 storage area AA and Basement level B3 garage at</t>
+  </si>
+  <si>
+    <t>parking spaces 41A and 41AA</t>
+  </si>
+  <si>
+    <t>the basement parking spaces, plant area, lift and staircase being</t>
+  </si>
+  <si>
+    <t>lying within the area shown edged with red and tinted pink on the plan of the above title filed at Land Registry and ground floor parking spaces shown edged red on the said plan</t>
+  </si>
+  <si>
+    <t>parking spaces, 1,2,3 4,5,6,7,8 and 9, garage and car lift</t>
+  </si>
+  <si>
+    <t>parking spaces BH041, BH043 to BH089 (inclusive), 1 to 104 (inclusive) and 106 to 116 (inclusive), Brewhouse Yard, parts of parking spaces BH021, BH022 and 105 Brewhouse Yard, parts of Brewery Square and Brewhouse Yard and land and buildings on the north east side of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car parking spaces on the north east side of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking spaces 667 and 678 </t>
+  </si>
+  <si>
+    <t>parking spaces 951, 952, 953 &amp; 954</t>
+  </si>
+  <si>
+    <t>parking spaces 467 and 482</t>
+  </si>
+  <si>
+    <t>and garages/parking spaces</t>
+  </si>
+  <si>
+    <t>and associated parking spaces and garages</t>
+  </si>
+  <si>
+    <t>together with parking spaces, bin stores and cycle stores</t>
+  </si>
+  <si>
+    <t>the lift and lift shaft from basement to roof inclusive</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land (including the airspace above to a height of 36m) at the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">land, airspace and part of the subsoil between </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land, buildings and airspace forming part of </t>
+  </si>
+  <si>
+    <t>more particularly described in the Lease dated 28 July 2006 referred to below</t>
+  </si>
+  <si>
+    <t>airspace adjoining</t>
+  </si>
+  <si>
+    <t>airspace</t>
+  </si>
+  <si>
+    <t>airspace above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace above the roof of </t>
+  </si>
+  <si>
+    <t>airspace above the south-facing roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace above the south-facing side of the roof of </t>
+  </si>
+  <si>
+    <t>airspace above the south-facing sid eof the roof of</t>
+  </si>
+  <si>
+    <t>airspace abovethe roof of</t>
+  </si>
+  <si>
+    <t>airspace abve</t>
+  </si>
+  <si>
+    <t>Airspace airspace</t>
+  </si>
+  <si>
+    <t>airspace and balconies extending from the first floor to the sixth floor inclusive at</t>
+  </si>
+  <si>
+    <t>airspace adjoining and balcony attached to</t>
+  </si>
+  <si>
+    <t>airspace and ground floor switchroom</t>
+  </si>
+  <si>
+    <t>airspace and loft space</t>
+  </si>
+  <si>
+    <t>airspace and loftspace</t>
+  </si>
+  <si>
+    <t>airspace and loftspace above</t>
+  </si>
+  <si>
+    <t>airspace and roof above</t>
+  </si>
+  <si>
+    <t>airspace and roof area at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace and roof at </t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace and roof of </t>
+  </si>
+  <si>
+    <t>airspace and roof at third floor level</t>
+  </si>
+  <si>
+    <t>airspace and roofs</t>
+  </si>
+  <si>
+    <t>airspace and roof</t>
+  </si>
+  <si>
+    <t>airspace and structures above</t>
+  </si>
+  <si>
+    <t>airspace aobve</t>
+  </si>
+  <si>
+    <t>airspace aove the roof of</t>
+  </si>
+  <si>
+    <t>airspace as more particularly described in the lease above the roof of</t>
+  </si>
+  <si>
+    <t>Part of the airspace at</t>
+  </si>
+  <si>
+    <t>airspace being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land and buildings and airspace being part of </t>
+  </si>
+  <si>
+    <t>Part of the airspace between the third and fourth floors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace at </t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace extending 6 metres vertically above the roof of </t>
+  </si>
+  <si>
+    <t>airspace extending one metre vertically above the roof of</t>
+  </si>
+  <si>
+    <t>airspace extending to 5 metres above part of the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace extending to a height of 20m above </t>
+  </si>
+  <si>
+    <t>airspace extending vertically 5 metres above the portion of the roof of</t>
+  </si>
+  <si>
+    <t>more particulary described in the registered lease</t>
+  </si>
+  <si>
+    <t>airspace for a bridge north of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace for a bridge south of </t>
+  </si>
+  <si>
+    <t>airspace from 9.07 metres above ordnance datum to 18.510 metres above ordnance datum</t>
+  </si>
+  <si>
+    <t>airspace forming part of</t>
+  </si>
+  <si>
+    <t>airspace and premises at</t>
+  </si>
+  <si>
+    <t>airspace on the east side of</t>
+  </si>
+  <si>
+    <t>airspace lying immediately above</t>
+  </si>
+  <si>
+    <t>airspace immediately above</t>
+  </si>
+  <si>
+    <t>airspace immediately above the area shown edged with red on the plan of the above title filed at the Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>airspace immediately above the area shown edged with red on the plan of the above title filed at Land Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>airspace immediately above the level of the surrounding roof of</t>
+  </si>
+  <si>
+    <t>airspace immediately above the roof of a building at</t>
+  </si>
+  <si>
+    <t>airspace immediately above the roof of the building</t>
+  </si>
+  <si>
+    <t>airspace lying immediately above the roof structure of</t>
+  </si>
+  <si>
+    <t>airspace immediately above the roof up to a height of 1 metre above the roof surface of</t>
+  </si>
+  <si>
+    <t>airspace immediately above the roof up to a height of 10 metres above the roof surface of</t>
+  </si>
+  <si>
+    <t>airspace immediately above parts of the roof up to a height of five metres above the roof surface</t>
+  </si>
+  <si>
+    <t>airspace immediately above the roof up to a height of six metres above the roof surface of the</t>
+  </si>
+  <si>
+    <t>airspace immediately above the south facing roof of</t>
+  </si>
+  <si>
+    <t>airspace immediately above the south-facing side of the roof of</t>
+  </si>
+  <si>
+    <t>airspace lease</t>
+  </si>
+  <si>
+    <t>airspace at</t>
+  </si>
+  <si>
+    <t>land and buildings and the airspace occupied by the Aerials at</t>
+  </si>
+  <si>
+    <t>airspace of an area above the rooftop of</t>
+  </si>
+  <si>
+    <t>airspace of and within</t>
+  </si>
+  <si>
+    <t>airspace of the roof above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace over </t>
+  </si>
+  <si>
+    <t>airspace over parts of</t>
+  </si>
+  <si>
+    <t>airspace over the foreshore adjoining</t>
+  </si>
+  <si>
+    <t>airspace over the river calder and adjoining land</t>
+  </si>
+  <si>
+    <t>airspace over the roof of</t>
+  </si>
+  <si>
+    <t>airspace and buildings at</t>
+  </si>
+  <si>
+    <t>airspace rising from and including 110.805 metres above Ordnance Datum to a height of 123.805 above Ordnance Datum</t>
+  </si>
+  <si>
+    <t>airspace and the roof at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace and the roof </t>
+  </si>
+  <si>
+    <t>airspace and the roof of</t>
+  </si>
+  <si>
+    <t>airspace rooftop premises</t>
+  </si>
+  <si>
+    <t>airspace sbove the roof</t>
+  </si>
+  <si>
+    <t>airspace shown</t>
+  </si>
+  <si>
+    <t>airspace lying to the south of</t>
+  </si>
+  <si>
+    <t>airspace space above</t>
+  </si>
+  <si>
+    <t>airspace space</t>
+  </si>
+  <si>
+    <t>airspace on the west side of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace and the surface of the roof of </t>
+  </si>
+  <si>
+    <t>airspace surrounding</t>
+  </si>
+  <si>
+    <t>airspace the roof of</t>
+  </si>
+  <si>
+    <t>airspace to a height of 1 metre above the roof of</t>
+  </si>
+  <si>
+    <t>airspace up to 1 metre above the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace up to 1 metre above the roofs of </t>
+  </si>
+  <si>
+    <t>airspace up to 10 metres above the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace up to 10 metres above the roof surface of </t>
+  </si>
+  <si>
+    <t>airspace up to 30 metres above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace up to 6 meters above the roof of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace up to a height of 0.5 metres above the roof of </t>
+  </si>
+  <si>
+    <t>airspace up to a height of 1 metre above the roof surface of</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 10 metres above the roof surface of</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 2 metres above the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace up to a height of 20 metres above the roof surface of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace up to a height of 20m above the roof of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace up to a height of 300mm above the roof surface of </t>
+  </si>
+  <si>
+    <t>airspace up to a height of 4 meters above the roof</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 4 metres as more particularly described in the lease</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 5 metres above the roof of</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 5 metres above the roof surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airspace up to a height of 50 metre above the roof of </t>
+  </si>
+  <si>
+    <t>airspace up to a height of 50 metres (as measured perpendicular to the angle of that roof surface) immediately above the roof of</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 50 metres above the roof of the building known as</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 50 metres above the roof of</t>
+  </si>
+  <si>
+    <t>excluding any part of the roof of the building or any structural part of the building</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 50 metres immediately above</t>
+  </si>
+  <si>
+    <t>as more particularly described in the registered lease</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 500 millimetres above the roof of</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 6 metres above the roof surface of</t>
+  </si>
+  <si>
+    <t>airspace up to a height of 600mm above the roof surface</t>
+  </si>
+  <si>
+    <t>airspace up to a height of two metres above the roof surface of</t>
+  </si>
+  <si>
+    <t>airspace on the north side of</t>
+  </si>
+  <si>
+    <t>airspace within</t>
+  </si>
+  <si>
+    <t>airspacea above the roof of</t>
+  </si>
+  <si>
+    <t>airspaceabove the roof of</t>
+  </si>
+  <si>
+    <t>airspaceabove the south-facing side of the roof of</t>
+  </si>
+  <si>
+    <t>airspacen above</t>
+  </si>
+  <si>
+    <t>airspaces</t>
+  </si>
+  <si>
+    <t>airspaces above the roof of</t>
+  </si>
+  <si>
+    <t>airspacevabove the roof of</t>
+  </si>
+  <si>
+    <t>all that 10 metres of airspace above that part of the roof of the building shown edged red on the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all that airspace above the roof at second floor level of </t>
+  </si>
+  <si>
+    <t>an airspace immediately above part of the area shown edged with red on the plan of the above title filed at the Registry and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace of 10 metres only above, lying to the west of </t>
+  </si>
+  <si>
+    <t>the airspace of 10 metres only above lying to the south of</t>
+  </si>
+  <si>
+    <t>the third floor and airspace above being</t>
+  </si>
+  <si>
+    <t>Land on the north side of and airspace above roof level of</t>
+  </si>
+  <si>
+    <t>having an area of approximately 148.64 square meters, with the airspace partly covered by and within the Retained Arch as described in the lease</t>
+  </si>
+  <si>
+    <t>having an area of approximately 153 square meters, with the airspace partly covered by and within the Retained Arch as described in the lease</t>
+  </si>
+  <si>
+    <t>having an area of approximately 400 square metres, with the airspace partly covered by and within the Retained Arch as described in the lease</t>
+  </si>
+  <si>
+    <t>with the airspace partly covered by and within the retained Arch as described in the Lease</t>
+  </si>
+  <si>
+    <t>having an area of approximately 334.73 square meters (3603 square feet), with the airspace partly covered by and within the Retained Arch as described in the lease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areas on the roof and the airspace above of </t>
+  </si>
+  <si>
+    <t>together with the airspace above and the subsoil below</t>
+  </si>
+  <si>
+    <t>basement and sixth floor premises and airspace above the buildings</t>
+  </si>
+  <si>
+    <t>Basement to Sixth Floors excluding the airspace more particularly described in the lease being</t>
+  </si>
+  <si>
+    <t>part of basement levels 1 and 2, ground floor and first to fourteenth floor and roof level including the airspace above this roof up to a maximum height of 3 metres above the roof level being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basement to Eighth Floors excluding the subsoil and airspace more particularly described in the lease being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basement Vaults and roof spaces, roofs and airspaces above, </t>
+  </si>
+  <si>
+    <t>part of the Basement, Mezzanine (entrance level), Ground to Second floors, Fourth to Seventh floors and the airspace above the premises to a height of 5 metres above the maximum height of the building being</t>
+  </si>
+  <si>
+    <t>part of basement, part ground floor, first to fourth floors, and roof excluding airspace above the buildings, being</t>
+  </si>
+  <si>
+    <t>land at basement, roof level and airspace above at</t>
+  </si>
+  <si>
+    <t>land at basement, roof level and airspace at</t>
+  </si>
+  <si>
+    <t>Being airspace above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being airspace above the roof of </t>
+  </si>
+  <si>
+    <t>being th airspace above the roof of</t>
+  </si>
+  <si>
+    <t>Being the airspace above</t>
+  </si>
+  <si>
+    <t>being the airspace comprising 2 town houses in</t>
+  </si>
+  <si>
+    <t>being the airspace comprising 48 apartments in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being the airspace extending upwards from the level of the roof surfaces (whether horizontal or otherwise) of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">being the display sign and airspace roof level only of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">building structures and airspace </t>
+  </si>
+  <si>
+    <t>buildings and airspace being the former</t>
+  </si>
+  <si>
+    <t>buildings, structures and airspace</t>
+  </si>
+  <si>
+    <t>more particularly described in the First Schedule to the said Lease</t>
+  </si>
+  <si>
+    <t>canopy airspace</t>
+  </si>
+  <si>
+    <t>Cellars beneath Middlesbrough Station airspace partly covered by and within the retained arches numbered</t>
+  </si>
+  <si>
+    <t>comprising airspace Lower Vault Level, Upper Vault Level, Mezzanine Level, Concourse Level and Levels 5, 6, 7 and above as</t>
+  </si>
+  <si>
+    <t>but exlcuding the airspace which is more than 4 metres above the existing ground level of the westernmost piece of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the land including the airspace above to a height of 36m at </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> airspace of 10 metres only above</t>
+  </si>
+  <si>
+    <t>first floor, mezzanine between first and second floor, second floor and airspace above ground floor entrance and staircase being</t>
+  </si>
+  <si>
+    <t>footpath and footbridge the airspace above to a height of 2.5 metres,</t>
+  </si>
+  <si>
+    <t>including the foundations of the building, but excluding the ground beneath the foundations airspace above and to the building as</t>
+  </si>
+  <si>
+    <t>ground surface airspace above</t>
+  </si>
+  <si>
+    <t>hte airspace immediately above the area shown edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hte elevation of the roof or roofs and airspace above a height of three metres immediately above area shown edged with red plan of the above title filed Registry and being the roofs of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft and airspace </t>
+  </si>
+  <si>
+    <t>Loft and airspace above</t>
+  </si>
+  <si>
+    <t>loft and airspace above the roof of</t>
+  </si>
+  <si>
+    <t>loft space and airspace</t>
+  </si>
+  <si>
+    <t>loft space and airspace above</t>
+  </si>
+  <si>
+    <t>loft space and airspace above the roof of</t>
+  </si>
+  <si>
+    <t>Loft Space and airspace over</t>
+  </si>
+  <si>
+    <t>Loft space, roof and airspace above</t>
+  </si>
+  <si>
+    <t>loftspace and airspace</t>
+  </si>
+  <si>
+    <t>loftspace and airspace above</t>
+  </si>
+  <si>
+    <t>loftspace and airspace above the roof of</t>
+  </si>
+  <si>
+    <t>Loftspace and airspace over</t>
+  </si>
+  <si>
+    <t>NOT: Only levels 2 and 3 are included in the title The airspace and roof are excluded</t>
+  </si>
+  <si>
+    <t>but excluding the North Bridge Steps airspace below 38.21 metres AOD of the parts as</t>
+  </si>
+  <si>
+    <t>comprising airspace basement, ground floor, and first floor levels and any buildings erected therein, but excluding any tenants fixtures and fittings and excluding any airspace above and below, as described in the lease</t>
+  </si>
+  <si>
+    <t>part basement and part and airspace over the retail strip up to the bottom of the first floor soffit</t>
+  </si>
+  <si>
+    <t>part ground floor and airspace above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Office yard and airspace comprised in </t>
+  </si>
+  <si>
+    <t>comprising airspace lower ground floor, upper ground floor, first floor and second floor levels, and any buildings erected therein, but excluding any tenants fixtures and fittings and excluding any airspace above and below, as described in the lease</t>
+  </si>
+  <si>
+    <t>railtrack and airspace</t>
+  </si>
+  <si>
+    <t>ramp and airspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Thames airspace above </t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Thames former </t>
+  </si>
+  <si>
+    <t>and airspace above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riverbed, foreshore and airspace of the </t>
+  </si>
+  <si>
+    <t>roof airspace and basement areas</t>
+  </si>
+  <si>
+    <t>roof and airspace</t>
+  </si>
+  <si>
+    <t>roof and airspace above</t>
+  </si>
+  <si>
+    <t>roof and airspace above the roof of</t>
+  </si>
+  <si>
+    <t>Roof and airspace above the roof</t>
+  </si>
+  <si>
+    <t>roof and airspace above the second floor</t>
+  </si>
+  <si>
+    <t>Roof and airspace comprised in the flat third floor above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof and airspace of </t>
+  </si>
+  <si>
+    <t>roof and airspace thereover</t>
+  </si>
+  <si>
+    <t>roof area and airspace</t>
+  </si>
+  <si>
+    <t>Roof level and airspace above</t>
+  </si>
+  <si>
+    <t>roof level the apparatus but excluding the airspace above</t>
+  </si>
+  <si>
+    <t>roof of the building including the roof finishing but excluding the structure of the roof and including the airspace above being</t>
+  </si>
+  <si>
+    <t>Roof space and airspace</t>
+  </si>
+  <si>
+    <t>roof space, roof and airspace above</t>
+  </si>
+  <si>
+    <t>Roof terrace and airspace</t>
+  </si>
+  <si>
+    <t>roof terrace and airspace</t>
+  </si>
+  <si>
+    <t>roof, airspace and lightwell</t>
+  </si>
+  <si>
+    <t>roofspace and airspace above</t>
+  </si>
+  <si>
+    <t>roofspace and airspace</t>
+  </si>
+  <si>
+    <t>Rooftop (including the roof structure airspace above),</t>
+  </si>
+  <si>
+    <t>Rooftop and airspace</t>
+  </si>
+  <si>
+    <t>Rooftop and airspace above</t>
+  </si>
+  <si>
+    <t>structures and airspace</t>
+  </si>
+  <si>
+    <t>subsoil and airspace</t>
+  </si>
+  <si>
+    <t>as more particularly defined as the Demised the lease</t>
+  </si>
+  <si>
+    <t>subsoil and airspace of the public highway</t>
+  </si>
+  <si>
+    <t>which comprises the airspace interior surfaces (but no structure or exterior) of that Building enclosing the Accommodation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substation accommodation </t>
+  </si>
+  <si>
+    <t>surface of flat roof and airspace above</t>
+  </si>
+  <si>
+    <t>surface of the roof airspace immediately above</t>
+  </si>
+  <si>
+    <t>surface of the roof and airspace immediately above that roof to a height of 5 metres above the roof surface excluding any structural roof or building of the</t>
+  </si>
+  <si>
+    <t>the airspace above and subsoil below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that airspace above the roof of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 5 metre airspace above the roof of </t>
+  </si>
+  <si>
+    <t>the airspace @MNS and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace 14.475 metres above</t>
+  </si>
+  <si>
+    <t>the airspace</t>
+  </si>
+  <si>
+    <t>the airspace 200mm in height in parallel to the roof of the building</t>
+  </si>
+  <si>
+    <t>the airspace abobe the roof of</t>
+  </si>
+  <si>
+    <t>the airspace above</t>
+  </si>
+  <si>
+    <t>the airspace above roof of the properties described in the property Register Schedule hereto</t>
+  </si>
+  <si>
+    <t>the airspace above the area @MNS and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace above the area shown edged red@MNS and being the roof of buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace above the area shown edged with red plan of the above filed Registry roof of </t>
+  </si>
+  <si>
+    <t>the airspace above the area shown filed Registry roof of</t>
+  </si>
+  <si>
+    <t>the airspace above the area shown with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>The airspace above the bed and banks of the River Thames which lies below main high water mark</t>
+  </si>
+  <si>
+    <t>being the air space measured from the underside of the lowest balcony or balconette of the balconies and balconettes first floor level extending upwards to an imaginary line over the river the parapet roof top level and extending horizontally from the face of the building 1015mm outwards over the river and extending for the full width of the whole northern elevation of the building above and including first floor level</t>
+  </si>
+  <si>
+    <t>the airspace above the existing premises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace above the ground floor of the building and located first floor of the building being </t>
+  </si>
+  <si>
+    <t>the airspace above the lease</t>
+  </si>
+  <si>
+    <t>the airspace above the property</t>
+  </si>
+  <si>
+    <t>the airspace above the roof</t>
+  </si>
+  <si>
+    <t>the airspace above the roof as more particularly described in the original lease</t>
+  </si>
+  <si>
+    <t>the airspace above the roof being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace above the roof being airspace above the roof of </t>
+  </si>
+  <si>
+    <t>The airspace above the roof level of the building</t>
+  </si>
+  <si>
+    <t>The airspace above the roof second floor of the building being 3.5 metres (but not the airspace above)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace above the roof surface immediately above the area @MNS and being the roof of </t>
+  </si>
+  <si>
+    <t>the airspace above the roof surface immediately above the area shown edged with red plan of the above title filed Registry and being</t>
+  </si>
+  <si>
+    <t>the airspace above the roofs of the properties described in the Property Register Schedule hereto</t>
+  </si>
+  <si>
+    <t>the airspace above the south facing roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace above the southern half of the roof of </t>
+  </si>
+  <si>
+    <t>The airspace above the south-facing roof of</t>
+  </si>
+  <si>
+    <t>the airspace above the south-facing roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace above the surface level of </t>
+  </si>
+  <si>
+    <t>which said airspace is above those levels</t>
+  </si>
+  <si>
+    <t>the airspace abovethe roof of</t>
+  </si>
+  <si>
+    <t>the airspace and ablove</t>
+  </si>
+  <si>
+    <t>the airspace and above</t>
+  </si>
+  <si>
+    <t>the airspace and above being</t>
+  </si>
+  <si>
+    <t>the airspace and above the Basement</t>
+  </si>
+  <si>
+    <t>the airspace and and above</t>
+  </si>
+  <si>
+    <t>the airspace and any buildings erected therein and</t>
+  </si>
+  <si>
+    <t>the airspace and bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace and structures of </t>
+  </si>
+  <si>
+    <t>the airspace any buildings erected therein, the dimensions of which are described in the Lease and being</t>
+  </si>
+  <si>
+    <t>the airspace as defined in the lease being</t>
+  </si>
+  <si>
+    <t>the airspace being</t>
+  </si>
+  <si>
+    <t>the airspace between OS Datum Levels 14.000 and 17.600 and 17.700 and 21.400</t>
+  </si>
+  <si>
+    <t>the airspace between OS Datum Levels 17.250 and 20.775</t>
+  </si>
+  <si>
+    <t>the airspace between OS Datum levels 58.82 and 59.49</t>
+  </si>
+  <si>
+    <t>the airspace between the datum levels</t>
+  </si>
+  <si>
+    <t>the airspace comprising 3 apartments in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace comprising 31 apartments in </t>
+  </si>
+  <si>
+    <t>the airspace comprising 32 apartments in</t>
+  </si>
+  <si>
+    <t>the airspace comprising 36 apartments in</t>
+  </si>
+  <si>
+    <t>the airspace comprising 4 apartments in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace comprising 4 town houses in </t>
+  </si>
+  <si>
+    <t>the airspace comprising 41 apartments in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace comprising 5 Town Houses in </t>
+  </si>
+  <si>
+    <t>the airspace comprising 53m2 above the area shown edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace comprising 6 town houses in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace comprising 7 Apartments in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace comprising 7 Town Houses in </t>
+  </si>
+  <si>
+    <t>the airspace comprising the HV Switchgear and other equipment which is located within Sub-station M1/2</t>
+  </si>
+  <si>
+    <t>the airspace covered by and within</t>
+  </si>
+  <si>
+    <t>the airspace for telecommunications equipment roof of</t>
+  </si>
+  <si>
+    <t>the airspace from and including 48.5 metres above Ordnance Survey Datum up to and including 100.5 metres above Ordnance Survey Datum,</t>
+  </si>
+  <si>
+    <t>the airspace from the first floor to the roof excluding the Duct</t>
+  </si>
+  <si>
+    <t>the airspace ground, first</t>
+  </si>
+  <si>
+    <t>the airspace imediately above that roof of buildings which solar photovoltaic equipment has been installed up to a height of two metres above the roof surface of</t>
+  </si>
+  <si>
+    <t>the airspace immdediately above the area shown edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immdeiately above the area shown edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immdiately above area @MNS and being the roof of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immedaiately above the area shown edged with red plan of the above title filed Registry and being the roof of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immedaitely above area @MNS and being the roof of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediaately above area @MNS and being the roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediatelly above the area @MNS and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately abone the area @MNS and being the roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediately abov the area showwn edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above @MNS and being the roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediately above are @MNS and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above are a@MNS and being the roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediately above area @MNS and being</t>
+  </si>
+  <si>
+    <t>the airspace immediately above area @MNS and being the rood of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above area @MNS and being the roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above area @MNS and being the roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediately above area @MNS and being the roof of a building</t>
+  </si>
+  <si>
+    <t>the airspace immediately above area @MNS roof of being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above area edged with red plan of the above title filed Registry and being the roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediately above area hown edged with red plan of the above title filed Registry roof of being</t>
+  </si>
+  <si>
+    <t>the airspace immediately above area shown edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above area shown edged with red plan of the above title filed Registry roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above area shown filed Registry and being</t>
+  </si>
+  <si>
+    <t>the airspace immediately above area shown filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above area shown filed Registry and being the roof of the milking parlour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above shown edged with red plan of the above title filed Registry and being the roof of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above thar roof of buildings which solar photovoltaic equipment has been installed up to a height of two metres above the roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediately above that area shown edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above that roof of building which solar photovoltaic equipment has been installed up to a height of two metres above the roof surface of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above that roof of buildings which solar photovoltaic equipment has been installed up to a height of two metres above the roof surface of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above that roof of buildings which solar photovoltaic equipment has ben installed up to a height of two metres above the roof surface of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above that roof of the Landlords Building as is shown cross-hatched black plan 2, of the registered lease, up to a height of 0.5 metres above the roof surface excluding any roof of the building and any structural building</t>
+  </si>
+  <si>
+    <t>the airspace immediately above that roof of</t>
+  </si>
+  <si>
+    <t>as is shown hatched green plan 2 to the registered lease</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the @MNS and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above the araea shown edged with red plan of the above title filed Registry and being the roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediately above the are @MNS and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area @MNS and being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above the area @MNS and being roof </t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area @MNS and being roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area @MNS and being the foor of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above the area @MNS and being the roof </t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area @MNS and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area @MNS IRSPACE</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area @MNS irspace,</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area ahown edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above the area showing edged with red plan of the above title filed Registry and being the roof of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above the area shown @MNS roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown and edged with red title planm of the above title and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown edged edged with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown edged red with red plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above the area shown edged with plan of the above title filed Registry and being the roof of </t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown edged with plan of the above title filed Registry Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown edged with red and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown edged with red in the plan of the above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown edged with red plan</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown edged with red plan above title filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the airspace immediately above the area shown edged with red plan filed Registry and being the roof of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airspace immediately above the area shown edged with red plan of the above filed Registry and being the roof of </t>
+  </si>
+  <si>
+    <t>hatched red plan to the registered lease being BT Property</t>
+  </si>
+  <si>
+    <t>comprising hatched red plan to the registered lease being BT Property</t>
+  </si>
+  <si>
+    <t>edged red plan to the registered lease being BT Property</t>
+  </si>
+  <si>
+    <t>hatched grey plan to the registered lease being BT Property</t>
+  </si>
+  <si>
+    <t>hatched red and blue plan to the registered lease being BT Property</t>
+  </si>
+  <si>
+    <t>hatched red and hatched blue plan to the registered lease being BT Property</t>
+  </si>
+  <si>
+    <t>hatched red plan of the registered lease being BT Property</t>
+  </si>
+  <si>
+    <t>hatched red plan to the registerd lease being BT Property</t>
+  </si>
+  <si>
+    <t>hatched red plan to the registered lese being BT Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatched red plan to the tregistered lease being BT Property </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatched red plan tot he registered lease being BT Property </t>
+  </si>
+  <si>
+    <t>shown hatched red and hatched blue plan to the registered lease being BT Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown hatched red plan to the registered lease being BT Property </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the area hatched red plan to the registered lease being BT Property </t>
   </si>
 </sst>
 </file>
@@ -2927,10 +4469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B900"/>
+  <dimension ref="A1:B1458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A884" workbookViewId="0">
-      <selection activeCell="A903" sqref="A903"/>
+    <sheetView tabSelected="1" topLeftCell="A1429" workbookViewId="0">
+      <selection activeCell="A1441" sqref="A1441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7559,6 +9101,2794 @@
         <v>861</v>
       </c>
     </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956"/>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1069" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1070" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1071" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1072" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1074" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1077" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1078" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1079" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1080" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1081" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1082" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1083" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1084" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1085" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1086" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1087" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1088" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1089" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1090" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1091" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1092" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1093" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1094" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1095" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1096" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1097" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1098" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1099" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1100" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1101" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1102" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1103" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1127" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1128" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1129" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1130" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1131" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1132" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1133" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1134" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1135" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1136" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1137" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1138" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1139" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1140" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1141" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1142" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1143" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1144" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1145" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1146" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1147" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1148" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1149" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1150" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1151" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1152" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1153" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1154" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1155" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1156" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1157" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1158" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1159" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1160" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1161" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1162" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1163" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1164" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1165" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1166" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1167" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1168" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1169" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1170" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1171" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1172" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1173" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1174" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1175" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1176" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1177" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1178" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1179" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1180" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1181" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1182" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1183" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1184" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1185" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1186" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1187" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1188" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1189" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1190" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1191" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1192" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1193" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1194" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1195" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1196" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1197" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1198" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1199" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1200" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1201" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1202" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1203" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1204" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1205" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1206" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1207" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1208" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1209" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1210" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1211" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1212" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1213" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1214" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1215" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1216" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1217" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1218" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1219" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1220" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1221" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1222" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1223" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1224" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1225" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1226" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1227" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1228" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1229" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1230" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1231" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1232" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1233" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1234" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1235" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1237" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1238" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1239" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1240" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1241" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1242" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1243" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1245" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1246" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1247" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1250" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1251" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1252" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1253" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1254" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1255" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1256" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1257" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1258" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1259" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1260" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1261" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1262" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1263" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1264" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1265" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1266" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1267" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1268" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1269" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1270" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1271" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1272" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1273" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1274" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1275" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1276" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1277" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1278" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1279" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1280" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1281" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1282" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1283" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1284" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1285" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1286" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1287" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1288" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1289" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1290" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1291" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1292" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1293" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1294" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1295" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1296" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1297" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1298" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1299" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1300" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1301" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1302" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1303" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1304" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1305" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1306" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1307" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1308" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1309" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1310" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1311" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1312" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1313" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1314" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1315" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1316" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1317" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1318" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1319" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1320" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1321" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1322" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1323" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1324" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1325" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1326" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1327" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1328" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1329" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1330" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1331" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1332" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1333" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1334" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1335" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1336" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1337" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1338" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1339" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1340" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1341" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1342" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1343" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1344" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1345" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1346" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1347" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1348" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1349" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1350" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1351" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1352" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1353" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1354" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1355" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1356" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1357" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1358" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1359" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1360" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1361" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1362" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1363" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1364" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1367" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1368" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1369" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1370" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1371" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1372" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1373" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1374" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1376" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1377" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1378" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1379" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1380" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1381" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1382" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1383" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1384" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1385" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1386" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1387" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1388" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1389" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1390" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1391" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1392" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1393" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1394" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1395" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1396" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1397" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1398" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1399" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1400" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1401" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1402" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1403" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1404" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1405" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1406" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1407" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1408" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1409" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1410" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1411" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1412" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1413" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1414" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1415" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1416" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1417" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1418" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1419" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1420" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1421" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1422" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1423" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1424" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1425" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1426" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1427" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1428" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1429" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1430" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1431" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1432" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1433" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1434" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1435" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1436" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1437" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1438" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1439" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1440" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1441" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1442" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1443" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1444" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1445" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1446" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1447" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1448" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1449" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1450" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1451" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1452" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1453" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1454" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1455" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1456" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1457" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1458" t="s">
+        <v>1375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/clean_strings.xlsx
+++ b/data/clean_strings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1959">
   <si>
     <t>term</t>
   </si>
@@ -4152,6 +4152,1755 @@
   </si>
   <si>
     <t xml:space="preserve">the area hatched red plan to the registered lease being BT Property </t>
+  </si>
+  <si>
+    <t>excluding from the title so much (if any) of that as comprises a highway which is maintained (but only so much of the relevant as is vested in the relevant highway authority)</t>
+  </si>
+  <si>
+    <t>eighteen inches in width and thirty feet in depth but excluding the top two feet thereof C and D plan of the above title</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 17 of the Second Schedule of the registered lease) excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>two strips of three feet in width and thirty feet in depth</t>
+  </si>
+  <si>
+    <t>(but subject to Paragraph 17 of the Second Schedule of the Registered Lease) excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (excluding the top two feet six inches thereof)</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 17 of the Second Schedule of the Registered Lease) excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>tinted pink filed plan being three feet in width and thirty feet in depth excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>being a red line between points C and D title plan being a pipeline three feet in width and thirty feet in depth excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 17 of the second schedule of the registered lease) excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 17 of the second schedule of the registered lease) excluding the top two feet, six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph seventeen of the second schedule of the registered lease, excluding the top two feet six inches thereof)</t>
+  </si>
+  <si>
+    <t>three free in width and thirty feet in depth (but subject to paragraph seventeen of the second schedule of the registered lease, excluding the top two feet six inches thereof)</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 17 of the Second Schedule of the registered Deed of Grant) excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 13 of the second schedule of the registered lease) excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 17 of the Second Schedule of the registred lease) excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph seventeen of the Second Schedule of the registered lease, excluding the top two feet six inches thereof)</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 17 of the second schedule of the registered lease) excluding the top three feet thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph seventeen second schedule of the Registered Lease, excluding the top two feet six inches thereof)</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph seventeen of the Second Schedule of the registered lease, excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph seventeen of the registered lease, excluding the top two feet six inches thereof)</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to Paragraph 17 of the second schedule of the registered lease) excluding the top two feet, six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 17 of the Second Schedule of the Registered Lease) excluding the top two feet, six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph seventeen of the second schedule of the registered Lease, excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>three feet in width and thirty feet in depth (but subject to paragraph 17 of the Second Schedule of the registered lease, excluding the top two feet six inches thereof)</t>
+  </si>
+  <si>
+    <t>being three feet in width and thirty feet in depth excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>being eighteen inches in width and thirty feet in depth but excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>eighteen inches in width and thirty feet in depth but excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three feet in width and thirty feet in depth but excluding the top two feet six inches thereof filed </t>
+  </si>
+  <si>
+    <t>Details of and of the leases under which is held are contained in the Property Register Schedule hereto</t>
+  </si>
+  <si>
+    <t>width eighteen inches and in depth thirty feet but excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>The Leasehold shown with a red line between the points marked X and Y</t>
+  </si>
+  <si>
+    <t>the leasehold demised by the lease referred to below which lies within the area edged red plan to the above title filed Registry and comprising the structures of two jetties and mooring dolphins and occupied by the pillars and supports thereof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and staircase leading thereto which lies within the area edged red title plan of the above title filed Registry and being </t>
+  </si>
+  <si>
+    <t>which lies within the area edged red filed plan of the above title and shown tinted blue and yellow supplementary plan attached thereto and comprising</t>
+  </si>
+  <si>
+    <t>which lies within the area edged red filed plan of the above title and shown tinted pink blue and yellow supplementary plan attached thereto and comprising</t>
+  </si>
+  <si>
+    <t>The leasehold demised by the Lease referred to below registered 22 June 1999 which lies within the area edged red filed plan of the above title filed Registry and comprising the stairwell leading to the demised premises basement, ground, first, second and Boardwalk,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demised by the Lease referred to below which lies within the area edged red filed plan of the above title filed Registry and comprising the outer skin of gable end wall of </t>
+  </si>
+  <si>
+    <t>the Leasehold demised by the Lease referred to below which lies within the area edged red title plan of the above title filed Registry and comprising the staircase, landings, corridors, lift motor room and/or areas seven levels Newlyn 476.50, 484.25, 492.00, 499.75, 507.50, 515.75 and 524.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which lies within the area edged red filed plan of the above title filed Registry and comprising the ground first second and roof levels </t>
+  </si>
+  <si>
+    <t>an observation borehole which lies within the area edged red filed plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which lies within the area edged red filed plan of the above title filed Registry and comprising levels 39.675/39.750, 42.450/43.425 and 45.225 staircases giving access to the car park and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leasehold demised by the lease referred to below which lies within the area edged red title plan of the above title filed Registry and comprises the basement </t>
+  </si>
+  <si>
+    <t>which lies within the area edged red ground floor level and also comprises the parts first, second, third, fourth, fifth, sixth, seventh, eighth and ninth floor levels shown tinted pink supplementary plans to the title plan</t>
+  </si>
+  <si>
+    <t>the leasehold demised by the lease referred to below registered 1 November 2007 which lies within the area edged red title plan of the above mentioned title filed Registry and comprising the telecommunications antennae and apparatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that demised by the lease referred to below which lies within the area edged red filed plan of the above Title filed Registry and comprises </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The leasehold demised by the lease referred to below registered 16 November 1977 which lies within the area edged red plan of the above-mentioned title filed Registry comprises only those Harringworth Court as are tinted pink supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t>demised by the lease referred to below which lies within the area edged red title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that demised by the lease referred to below which lies within the area edged red filed plan of the above title filed Registry and comprises </t>
+  </si>
+  <si>
+    <t>the Leasehold which lies within the area edged red filed plan of the above title filed Registry and comprising levels 1 to 4 and 7 to 12 being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the leasehold demised by the lease referred to below which lies within the area edged red filed plan of the above title filed Registry and comprising </t>
+  </si>
+  <si>
+    <t>ground floor store room number 77 shown tinted pink supplementary plans to the filed plan</t>
+  </si>
+  <si>
+    <t>the leasehold demised by the lease referred to below registered 11 February 1997 which lies within the area edged red filed plan of the above title filed Registry and comprising the lower floor, ground floor the first floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leasehold demised by the lease referred to below which lies within the area edged red filed plan of the above Title filed Registry and comprises the common parts being the garden ground, roads, paths the building (but excluding the Garage blocks ) </t>
+  </si>
+  <si>
+    <t>demised by the lease referred to below which lies within the area edged red title plan filed Registry</t>
+  </si>
+  <si>
+    <t>three feet in width of thirty feet in depth (but subject to paragraph seventeen of the second schedule of the registered lease, excluding the top two feet six inches thereof)</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red plan of the above title filed Registry</t>
+  </si>
+  <si>
+    <t>including the whole thickness of the concrete slab upon which the premises stand and also the whole thickness of the pavement bridgings which have been erected over the area tinted blue said plan and also so much of comprised within the area shown edged red said plan as extends between the surrounding roads said areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the basement, lower ground floor, ground floor, first floor, second floor, third floor, fourth floor </t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and tinted pink and tinted blue plan of the above title filed Registry and additional car park shown edged with red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the multi storey car park the ground floor to the upper roof level </t>
+  </si>
+  <si>
+    <t>within the area shown edged red and tinted pink plan of the above title filed Registry basement floor parking space shown edged red and tinted blue said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> which lies within the area shown edged blue filed plan and is more precisely shown tinted pink supplementary plans thereto being the Foyer, Level 3, Lift Shaft Basement Level and Meter Room, Upper Basement Level</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and tinted blue plan of the above title filed Registry, the lock up store shown edged with red and tinted pink said plan car parking space shown edged with red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t>surface of a roof</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and tinted blue plan of the above title filed Registry space shown edged with red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the basement, ground, first of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Common Parts, Masts, </t>
+  </si>
+  <si>
+    <t>first, second, third of the</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red plan of the above title filed Registry and shown colured pink said lease plan</t>
+  </si>
+  <si>
+    <t>of rooms within</t>
+  </si>
+  <si>
+    <t>including the whole thickness of the concrete slab upon which the premises stand and also the whole thickness of the pavement bridgings which have been erected over the area hatched blue filed plan and also so much of comprised within the area shown edged red said plan as extends between the surrounding roads said areas</t>
+  </si>
+  <si>
+    <t>including the whole thickness of the concrete slab upon which the premises stand and also the whole thickness of the pavement bridgings which have been erected over the area tinted blue filed plan and also so much of comprised within the area shown edged red said plan as extends between the surrounding roads said areas</t>
+  </si>
+  <si>
+    <t>The Coffee Shop ground floor, mezzanine, first floor and second floor within the area shown edged with red plan of the above title filed Registry and</t>
+  </si>
+  <si>
+    <t>more particularly described in the registered lease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground floor, first, second, third, fourth, fifth </t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and edged yellow plan of the above title filed Registry Epsom Station shown edged with red and tinted blue said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retail unit being </t>
+  </si>
+  <si>
+    <t>the leasehold @MNS and being the the building</t>
+  </si>
+  <si>
+    <t>including the whole thickness of the concrete slab upon which the premises stand and also the whole thickness of the pavement bridgings which have been erected over the area tinted blue said plan and also so much of comprised within the area shown edged said plan as extends between the surrounding roads said areas</t>
+  </si>
+  <si>
+    <t>the roof top level of</t>
+  </si>
+  <si>
+    <t>within the area shown edged red and tinted pink plan of the above title filed Registry and an enclosure containing an equipment cabinet shown edged with red and tinted blue said plan</t>
+  </si>
+  <si>
+    <t>comprises only that ground floor tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>shown with a red line between points A to B; C to D; E to F; G to H plan of the above title filed Registry being width eighteen inches and in depth thirty feet but excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t>being width eighteen inches and in depth thirty feet but excluding the top two feet six inches thereof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo shown edged red title plan. The registration of </t>
+  </si>
+  <si>
+    <t>includes only that second floor tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>Phoenix Quay shown edged red title plan. The registration of</t>
+  </si>
+  <si>
+    <t>being 6.2 metres in width shown by a red line between the points lettered A and B in red filed plan</t>
+  </si>
+  <si>
+    <t>shown by a red line between the points X and Y filed plan, being a one metre cluding</t>
+  </si>
+  <si>
+    <t>Zinc edged red title plan. The registration of</t>
+  </si>
+  <si>
+    <t>includes only that third floor tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>includes only that first floor tinted pink supplementary plan 2 to the title plan</t>
+  </si>
+  <si>
+    <t>the line of a subterranean pipeline</t>
+  </si>
+  <si>
+    <t>and being such subsoil and under surface of the said as comprises a strip thereof 0.935 metres in width as falls within an upper limit of 0.4572 of a metre below the surface and a lower limit of 30.480 metres below the said upper limit</t>
+  </si>
+  <si>
+    <t>the line of a subterranean pipeline and being such subsoil and under surface of the said as comprises a strip thereof 0.915 metres in width as falls within an upper limit of 0.4572 of a metre below the surface and a lower limit of 30.480 metres below the said upper limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The leasehold @MNS and being the line of a sub-terranean pipe line </t>
+  </si>
+  <si>
+    <t>and being such subsoil and undersurface of the said as comprises a strip thereof 0.915 metres in width as falls within an upper limit of 0.4572 of a metre below the surface and a lower limit of 30.480 metres below the said upper limit Any this title Highway is subject to Public Rights of Way</t>
+  </si>
+  <si>
+    <t>The Leasehold shown by the red line between points lettered A and B plan of the above title filed Registry registered 5 August 1992 being containing an oil pipe-line 0.457 of a metre wide and situated between o 610 of a metre and 9.144 metres</t>
+  </si>
+  <si>
+    <t>The Leasehold shown by the red line between points lettered A and B plan of the above title filed Registry registered 29 July 1992 being containing an oil pipe-line 0.457 of a metre wide and situated between 0.610 of a metre and 9.144 metres</t>
+  </si>
+  <si>
+    <t>shown by the red line between A and B plan being containing an Oil Pipeline 0.457 meters wide and situated between 0.610 meters and 9.114 meters</t>
+  </si>
+  <si>
+    <t>the leasehold shown by the red line between the points lettered A and B plan of the above title filed Registry registered 28 June 1994 being containing an oil pipe line 0.457 of a metre wide and situated between 0.610 of a metre and 8.534 metres</t>
+  </si>
+  <si>
+    <t>shown by the red line between the points lettered A and B plan of the above title filed registry registered 15 April 1992 being containing an oil pipe-line 0.457 and 8.534 metres</t>
+  </si>
+  <si>
+    <t>the leasehold shown by the red line between the points lettered A and B plan of the above title filed Registry registered 28 June 1994 being containing an oil pipeline 0.457 of a metre wide and situated between 0.610 of a metre and 8.534 metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a pipeline one metre in width </t>
+  </si>
+  <si>
+    <t>as shown by the red line between the points A - B plan of the above Title filed thre Registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown by the red line between points A-B plan which comprises the end wall of the property </t>
+  </si>
+  <si>
+    <t>the leasehold demised by the lease referred to below comprises the</t>
+  </si>
+  <si>
+    <t>ground and first floor level shown edged red filed plan of the above title filed Registry</t>
+  </si>
+  <si>
+    <t>the leasehold demised by the lease referred to below registered 8 April 2005 which comprises the basement apartment being</t>
+  </si>
+  <si>
+    <t>The leasehold demised by the lease referred to below registered 6 August 2008 which comprises the thirteenth Apartment</t>
+  </si>
+  <si>
+    <t>within the area edged red and tinted blue title plan of the above title filed Registry and level 2 numbered 87 and 88 edged red and tinted yellow supplementary title plan</t>
+  </si>
+  <si>
+    <t>the leasehold demised by the lease referred to below which lies within the area edged red filed plan of the above title filed Registry and comprising</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ground floor store room number 77 shown tinted pink supplementary plans to the filed plan</t>
+  </si>
+  <si>
+    <t>@ASPs of the properties described in the Property Register Schedule hereto</t>
+  </si>
+  <si>
+    <t>the airpace above the roofs of the properties described in the Property Register Schedule hereto</t>
+  </si>
+  <si>
+    <t>@ASPs of the properties described in the Property Schedule hereto</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan only the first floor is included in the title</t>
+  </si>
+  <si>
+    <t>NOTE 1:-As to the part tinted blue filed plan, only is included in the title</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan only is included in the title</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan only the first floor maisonette is included in the registration</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan the first floor balcony is excluded from the title</t>
+  </si>
+  <si>
+    <t>As to the part tinted pink filed plan only the first floor is included int he title As to the part tinted blue filed plan only the are included in the title</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan only the ground floor is included in the title</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan, only the first floor is included in the title</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan only is included in the title @ASP and below this title are excluded from this registration</t>
+  </si>
+  <si>
+    <t>as to the part tinted blue filed plan only the Upper Maisonette is included in the title</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan only the foundations, attic and outer roof are included in the title</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan the first floor W C and rest room are excluded from the title</t>
+  </si>
+  <si>
+    <t>space NOTE:- As to the part tinted blue filed plan only is included in the title</t>
+  </si>
+  <si>
+    <t>As to the parts tinted blue filed plan only the front entrance halls passages and staircases (other than any entrance hall passage or staircase situated within any of the flats) foundations attics outer roofs of the blocks of flats are included in the title</t>
+  </si>
+  <si>
+    <t>as to the part tinted pink title plan the first, second and as to the part tinted blue title plan the ground, first, second</t>
+  </si>
+  <si>
+    <t>Cargo shown edged red title plan. The registration of</t>
+  </si>
+  <si>
+    <t>includes only those the Lower Ground Floor tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>includes only that first floor tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>the basement storage locker being basement storage locker st.b .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 metres in width a depth of 0.610 metres below the surface (upper limit) extending to a depth of 8.534 metres below the upper limit between points A, B and C filed plan </t>
+  </si>
+  <si>
+    <t>2 metres in width a depth of 0.610 metres below the surface (upper limit) extending to a depth of 8.534 metres below the upper limit</t>
+  </si>
+  <si>
+    <t>2 metres in width a depth of 0.610 metres below the surface (upper limit) extending to a depth of 8.534 metres below the upper limit between points C and D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatched red plan to the registered lease being BT Property </t>
+  </si>
+  <si>
+    <t>and decorative surface of adjacent balcony being</t>
+  </si>
+  <si>
+    <t>more particularly shown and tinted pink supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t>the lower ground, ground, first, second, third, fourth, fifth, sixth, seventh, eighth more particularly shown and tinted pink supplementary plans to the title plan and being</t>
+  </si>
+  <si>
+    <t>and lift, lift shaft, and reception area</t>
+  </si>
+  <si>
+    <t>the ground, first, second premises more particularly shown and tinted pink supplementary plans to the title plan and being</t>
+  </si>
+  <si>
+    <t>the ground, first, second more particularly shown and tinted pink supplementary plan to the title plan and being</t>
+  </si>
+  <si>
+    <t>the area shown edged with red on the plan of the above title filed at Land Registry and being the roof of</t>
+  </si>
+  <si>
+    <t>the Leasehold shown by the red line between the points lettered A and B plan of the above title filed Registry registered 11 April 1995 being that subsoil approximately two metres from the waters edge and having a width of approximately 300mm and a depth of approximately 600mm within which is situated the Duct; as the same is more fully described as including only so much of the subsoil as is required to accommodate that Duct as is situated underground and only so much of the surface as is required to accommodate any surface mounted inspection chambers junction boxes and other above ground any apparatus Duct</t>
+  </si>
+  <si>
+    <t>all those areas and passages and staircases forecourts courtyards drives rights of way (if any) gates fences paths gardens visitors of the property which are used in common by the owner or owners occupier or occupiers of any of the flats together also with the roof of the said flats the outer walls of the said flats foundations thereof</t>
+  </si>
+  <si>
+    <t>containing the oil pipelines and cable situated between 0.610 of a metre and 8.534 metres width being the aggregate of (a) the diameters of each of the said pipelines and cable (b) the distance between each of the said pipelines and cable and (c) 15.24 centimetres from the outer each of the outermost of the said pipelines and cable</t>
+  </si>
+  <si>
+    <t>the common the buildings intended for use in common by the owners or occupiers of any two or more of the Flats and comprising the entrances, staircases, landings and any other the Building so used in common, plus the gardens and grounds comprising the whole of the development excepting the buildings</t>
+  </si>
+  <si>
+    <t>the areas of foreshore highlighted in red filed plan extending 100 metres beyond the low water mark from time to time red lines AA and BB foreshore from time to time red lines CC and DD EE and FF GG and HH JJ and KK LL and MM NN and OO PP and QQ RR and SS TT and UU VV and AA</t>
+  </si>
+  <si>
+    <t>with a gable wall erected thereon extending from and including the footings of the foundations of the said wall (including the foundations) to eaves level and extending depth to one half in width of the said gable wall and projecting three feet from the face thereof</t>
+  </si>
+  <si>
+    <t>all that Concrete Raft or Platform which lies or above Ordnance Datum Seventeen Decimal Point Two Hundred and Ten Metres, which also includes the Foundations, Columns, Piers, Walls and Supports and all Buildings and Structures @ASP such Concrete Raft or Platform</t>
+  </si>
+  <si>
+    <t>minerals Portland QUALIFICATION:- The inclusion of all or any of the mines and minerals and powers of working and getting them in this title does not affect or prejudice the enforcement of any estate right or interest therein existing before 3 July 2007</t>
+  </si>
+  <si>
+    <t>the raft or deck immediately over the railway including the supporting foundations, columns and walls @ASP but excluding irspace below save for actually occupied by the supporting structures within the area tinted pink filed plan remaining filed plan</t>
+  </si>
+  <si>
+    <t>more particularly shown edged red supplementary plan NOTE: As to the part tinted pink supplementary plan only the upper building above ground floor level, which comprises the ground floor entrance and ground floor storeroom, is included in the title</t>
+  </si>
+  <si>
+    <t>Trunk Road, an electricity substation Tesco Stores, Trunk Road, Tesco Stores, Trunk Road, Unit 1, Holme Beck Close, Unit 2, Holme Beck Close, Unit 3, Holme Beck Close, Unit 4, Holme Beck Close and Unit 5, Holme Beck Close, Trunk Road, Middlesbrough</t>
+  </si>
+  <si>
+    <t>the whole of the third and fourth boiler room in the basement lift basement ground first and entrance hall ground floor and staircase ground first structures roof but excluding the remainder of the fifth floor @ASP the whole of the demised premises</t>
+  </si>
+  <si>
+    <t>Longbow House, 14 to 20 (all) Chiswell Street, 21 to 24 (all) Chiswell Street, Gavrelle House, 2 to 14 (all) Bunhill Row and 15, 20 and 21 to 29 (odd) Bunhill Row, the Honourable Artillery Company playing field Armoury House, City Road, Finsbury</t>
+  </si>
+  <si>
+    <t>the foreshore and bed of the river Tees Seal Sands occupied by the pillars and supports of the two jetties three berthing dolphins and five mooring bollards more particularly described in the deed of rectification dated 29 March 1982</t>
+  </si>
+  <si>
+    <t>Apartment 1215, X Q 7 Building, Taylorson Street South, Salford (M5 3FY) within the area shown edged with red and tinted blue plan of the above title filed Registry space number 229 shown edged with red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t>all that sub-soil as contains the two ducts each approximately 10 cms in diameter along the red line between the points lettered A and B fild plan, excluding any sub-soil surrounding the ducts and any surface of the towing path</t>
+  </si>
+  <si>
+    <t>the foreshore and bed River Tees Seal Sands occupied by the Pillars and supports of the two Jetties, three berthing dolphins and five mooring bollards more particularly described in the Deed of Rectification dated 29 June 1981</t>
+  </si>
+  <si>
+    <t>shown by a firm red line between points A and B plan of the above title filed Registry registered 5 April 1991 being containing an Oil Pipe-Line 0.457 of a metre wide and situated between 0.610 of a metre and 9.144 metres</t>
+  </si>
+  <si>
+    <t>Units SR0.01-SR0.06, SR1.01-SR1.06, SR2.01-SR2.06, SR3.01-SR3.06, SR4.01-SR4.06, SR5.01-SR5.08, SR6.01-SR6.08, SR7.01-SR7.07, SR8.01-SR8.07, IN0.01-IN0.03, IN1.01-IN1.04, IN2.01-IN2.04, IN3.01-IN3.04 and IN4.01-IN4.04</t>
+  </si>
+  <si>
+    <t>those parts over which Vodafone's apparatus and equipment is or shall be installed within the area edged red and tinted blue title plan of the above title filed Registry cabinet edged red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t>the Leasehold shown by the red line between the points lettered A and B plan of the above title filed Registry being containing an oil pipeline 0.457 metres wide and situated between 0.610 metres and 9.144 metres</t>
+  </si>
+  <si>
+    <t>the surface of the flat roofs including the structure beneath the surface comprising everything above the ceiling joists of the flats floor of the building immediately beneath the same @ASP the said flat roof</t>
+  </si>
+  <si>
+    <t>substation in Essendyke, Centrale, Bretton, in Watergall, Bretton, in Watergall Local Centre, Bretton, in Outfield, Bretton, in Oxclose, Bretton, in Oxclose Shopping Centre, Bretton, in Kirkmeadow, Bretton</t>
+  </si>
+  <si>
+    <t>the surface only of Parkshot being the paving and all other the property above the upper most the superstructure supporting the same (but not including any concrete raft or deck underneath the said paving)</t>
+  </si>
+  <si>
+    <t>all the foreshore and sea bed from time to time red lines AA and BB, CC and DD, EE and FF, GG and HH, JJ and KK, LL and MM,, NN and OO, PP and QQ, RR and SS, TT and UU, and VV plans annexed to the Lease</t>
+  </si>
+  <si>
+    <t>including the Basement Flat within the area tinted blue filed plan, the Cellerage beneath the roadway tinted yellow filed plan, the Garden Ground, Basement area whole of the Dwellinghouse other than the property comprised in the Leases of the Ground, First, Second more particularly described in the following Schedule Short Date of Parties Term Rent Lessees Description Lease Years From Title Ground 17 November 1) Dora Marguerite 999 29.9.1975 Â£10 AV12200 Floor Flat 1975 Jones 2) Mavis Elsie Rogers First 9 December 1) Dora Marguerite 999 29.9.1975 Â£10 AV13238 Floor Flat 1975 Jones 2) Maud Lilian Eason Second 13 October 1) Dora Marguerite 999 29.9.1975 Â£10 AV11561 Floor Flat 1975 Jones 2) Dorothy Earp Third 29 September 1) Dora Marguerite 999 29.9.1975 Â£10 AV12160 Floor Flat 1975 Jones 2) Peter Charles Rudland and Elizabeth Mary Rudland</t>
+  </si>
+  <si>
+    <t>comprises First ALL THOSE the gardens paths forecourts entrance steps and dustbin area halls landings staircase passages and other the Property which are used in common by the owners or occupiers of any two or more of the flats and secondly ALL THOSE the main structural the property including the roof foundations and external parts thereof (but not the windows of the flats nor the interior faces of the external walls as bound the flats) and all cisterns tanks sewers drains pipes cables wires ducts and conduits not used solely for the purpose of one flat joists or beams to which are attached any ceilings except where the said joist or beams also support the floor of a flat and also all other the Property as are not the responsibility of the Lessees of the flats</t>
+  </si>
+  <si>
+    <t>and deeds of surrender referred to in the Property Register</t>
+  </si>
+  <si>
+    <t>this title is of MIXED TENURE combining Absolute Freehold and Good Leasehold as more particularly described below but the Freehold and Leasehold titles are indistinguishably intermixed In order that this register could be created in computerised format the nature of title TITLE ABSOLUTE has been used heading in the Proprietorship Register and relates to the freehold this title only The nature title for this registration is TITLE ABSOLUTE/TITLE GOOD LEASEHOLD With regard to the area of this title that is Good Leasehold, a Good Leasehold Title does not affect or prejudice the enforcement of any estate, right of interest affecting or in derogation of the title of the Lessor to grant the lease</t>
+  </si>
+  <si>
+    <t>(1) being all those pieces or parcels of Entire Property upon which no building or buildings shall have been erected being the forecourt access ways and gardens of the Entire Property (2) All those front and rear entrance halls passages and staircases (other than any entrance hall passage or staircase situated within any of the flats) within the said block of flats Entire Property (3) The foundations walls attic outer roof of the said block of flats and (4) All other (if any) the part or the Entire Property which after the granting of all the leases of the flats in the manner referred to in the recitals hereof shall not be consumed in one or more of the said leases</t>
+  </si>
+  <si>
+    <t>excluding from the title so much (if any) of that as compises a highway which is maintained (but only so much of the relevant vested in the relevant highway authority)</t>
+  </si>
+  <si>
+    <t>excluding from the title so much (if any) of that as comprises a highway which is maintained (but only so much of the relevant vested in the relevant Highway Authority)</t>
+  </si>
+  <si>
+    <t>the first, the building the entrance lobby and internal passageway ground floor staircase leading therefrom to the mezzanine floor passageway mezzanine floor staircase leading from the mezzanine floor to the first floor</t>
+  </si>
+  <si>
+    <t>excluding from the title so much (if any) of that as comprises a highway which is maintained (but only so much of the relevant vested in the relevant Highway Authority</t>
+  </si>
+  <si>
+    <t>excluding from the title so much (if any) of as comprises a highway which is maintained (but only so much of the relevant vested in the relevant Highway Authority)</t>
+  </si>
+  <si>
+    <t>the lower ground, ground, first, second, third, fourth</t>
+  </si>
+  <si>
+    <t>subsoil or undersurface of a piece of retained (as hereinafter defined), the underground structure or tunnel about twelve feet in diameter or thereabouts now constructed or comprised therein which runs from Firstly hereinbefore described in a north westerly direction towards the buildings St Margarets Bay Telephone Repeater Station as marked by the letters TRS said plan a depth thereunder of not less than forty feet measured from the mean natural ground level to the uppermost such structure or tunnel</t>
+  </si>
+  <si>
+    <t>the subsoil or undersurface of a piece of retained (as hereinafter defined) underground structure or tunnel about twelve feet in diameter or thereabouts now constructed or comprised therein which runs from Firstly hereinbefore described in a north westerly direction towards the buildings St. Margarets Bay Telephone Repeater Station as marked by the letters TRS said plan a depth thereunder of not less than forty feet measured from the mean natural ground level to the uppermost such structure or tunnel</t>
+  </si>
+  <si>
+    <t>excluding from the title so much (if any) of as comprises a Highway which is maintained (but only so much of the Relevant vested in the Relevant Highway Authority)</t>
+  </si>
+  <si>
+    <t>As to the part numbered 1 filed plan only the first floor is included in the title As to the part numbered 2 filed plan only the cellar and first floor are included in the title As to the part numbered 3 filed plan only the cellar ground and first floor are included in the title As to the part numbered 4 filed plan only the ground floor is included in the title As to the part numbered 5 filed plan only the cellar and ground floor are included in the title As to the part numbered 6 filed plan only the cellar is included in the title</t>
+  </si>
+  <si>
+    <t>held for a term (which comprised also other ) of 999 years from 4 October 1880, created by a Deed of Covenant to Surrender dated 5 October 1880 made between Margaret Ellen Fort, Edward Ebenezer Kay and James Richard Upton of the one part and Thomas Walmesley of the other part and a surrender and admittance made 5 October 1880 in pursuance thereof subject to the payment of the rent of Â£32.5s 0d reserved by and to the performance of the covenants provisoes conditions and agreements contained in the said deed dated 5 October 1880</t>
+  </si>
+  <si>
+    <t>held for a term (which comprises also other ) of 999 years from 4 October 1880 created by a Deed of Covenant and Surrender dated 5 October 1880 made between (1) Margaret Ellen Fort, Edward Ebenezer Kay and James Richard Upton and (2) Thomas Walmesley and a Surrender and Admittance made 5 October 1880 in pursuance thereof subject to the payment of the rent of Â£32.5s 0d reserved by and to the performance of the covenants provisos conditions and agreements contained in the said Deed dated 5 October 1880</t>
+  </si>
+  <si>
+    <t>the structure, and entrance halls passages staircases corridors landings lifts and lift shafts refuse disposal shafts porters accommodation workrooms stores and ancillary accommodation in the block of flats</t>
+  </si>
+  <si>
+    <t>garden forecourts access roads and lay-bys said building water tank chimneys flues drains pipes and wires used for the purposes of the premises hereby demised or in common by lessees or occupiers of flats in the building of which the demised premises form part</t>
+  </si>
+  <si>
+    <t>being the flats and part flats s listed in the Schedule to the Charges Register hereto SHORT PARTICULARS OF AND OF THE LEASES UNDER WHICH IS HELD 1 PROP DESC: Development River View Court, Bury New Road DATE OF LEASE: 25 March 1854 PARTIES: (1) William Legh Clowes (2) David Ainsworth TERM: 999 years from 25 March 1854 RENT: Â£29.6s 6d PLAN REF: Tinted pink</t>
+  </si>
+  <si>
+    <t>more particularly described in the Schedule below:- FLOOR LEVEL FLAT Lower Ground Floor</t>
+  </si>
+  <si>
+    <t>the two strata of subsoil 12.3 and 25.5 metres in depth or thereabouts beneath tinted pink, blue and brown and tinted yellow respectively filed plan being</t>
+  </si>
+  <si>
+    <t>The upper surfaces of which strata of subsoil are a level equivalent to 12.1 and 10.4 metres or thereabouts below the levels of the adjacent roadways Stratford Place and James Street points marked XX and X respectively filed plan</t>
+  </si>
+  <si>
+    <t>all those the mains structural the building</t>
+  </si>
+  <si>
+    <t>including the roofs foundations weight-bearing walls and all external the building (but not the window frames nor the glass of the windows of the residences nor the interior faces of such of the said external or weight-bearing walls as bound or are contained in any of the residences) driveway, forecourt, garage area and garden areas edged red filed plan</t>
+  </si>
+  <si>
+    <t>two blocks of flats</t>
+  </si>
+  <si>
+    <t>has the benefit of certain outbuildings the structure of the flat blocks erected thereon as more particularly described in the Schedule to a lease dated 12 July 1968 as varied by a Deed of Variation of Lease dated 8 July 1969 The individual flats comprised in the two blocks garages erected or to be erected are not included in the title</t>
+  </si>
+  <si>
+    <t>and lands adjacent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subsoil of </t>
+  </si>
+  <si>
+    <t>and of constructing (but by underground workings only) and of constructing (but by underground workings only) and maintaining in or through such subsoil or undersurface tunnels and works authorised by the said Act of 1955 space occupied by such tunnels and works subsoil excavated in the construction thereof for the residue of the term of the registered lease</t>
+  </si>
+  <si>
+    <t>and of constructing (but by underground workings only) and maintaining in or through such subsoil or undersurface tunnels and works authorised by the said Act of 1955 the space occupied by such tunnels and works subsoil excavated in the construction thereof, for the residue of the term of 99 years from 10 October 1960</t>
+  </si>
+  <si>
+    <t>containing oil pipes-lines and cable the width of which shall be the aggregate of (a) the diameters of each of the said pipe-lines and cable (b) the distance between each of the said pipe-lines and cable and (c) 15.24 centimetres (six inches) from the outer each of outermost of the said pipe-lines and cable and situated between 0.610 of a metre and 8.534 metres</t>
+  </si>
+  <si>
+    <t>Excluding from the title so much (if any) of that as comprises a highway which is maintained (but only so much of the relevent vested in the relevant highway authority)</t>
+  </si>
+  <si>
+    <t>Firstly all that trackside irspace extending in a northerly direction from a point nine metres to a point one hundred and eighty four metres from the most northerly</t>
+  </si>
+  <si>
+    <t>and Secondly the footings and Thirdly the wall but excluding the crash box, the bridge retaining walls more particulary described in the lease</t>
+  </si>
+  <si>
+    <t>the common a block of flats</t>
+  </si>
+  <si>
+    <t>and adjacent cluding the chimneys, flues, drains, pipes and wires used for the purposes of the premises in this title or in common by lessees or occupiers of flats in the building of which these premises form part but excluding such of the same as are used solely for the purposes of premises not included in this title</t>
+  </si>
+  <si>
+    <t>ith a right of way foot only over 486 St.Albans Road staircase rear of 486 St. Albans Road passage 4 feet wide rear of the roof of the single storey portion of the main building of 486 St.Albans Road for the purpose of access to the flat upper portion of 484 St.Albans Road but except and reserved the rights of drainage support and way in the lease mentioned</t>
+  </si>
+  <si>
+    <t>basement of</t>
+  </si>
+  <si>
+    <t>The Isis Building included in this title are more particularly shown supplementary plan and tinted yellow respective floor levels Also included are the voids tinted blue ground and first floor level which form first respectively terrace first floor level which is tinted pink supplementary plan</t>
+  </si>
+  <si>
+    <t>The Isis Building included in the title are more particularly shown supplementary plan and tinted yellow respective floor levels Also included are the voids tinted blue ground and first floor levels which form first respectively terrace first floor level which is tinted pink supplementary plan</t>
+  </si>
+  <si>
+    <t>demised by a lease dated 27 November 1953 within the area number filed Registry and being the portions of the basement ground first second third edged red supplementary plan to the filed plan the structure of the block</t>
+  </si>
+  <si>
+    <t>more particularly described in the two Transfers both dated 27 November 1953 referred to in the Charges register</t>
+  </si>
+  <si>
+    <t>the two subways basement level connecting</t>
+  </si>
+  <si>
+    <t>and of constructing (but by underground workings only) and maintaining in or through such subsoil or undersurface tunnels and works authorised by the said Act of 1955 space occupied by such tunnels and works subsoil excavated in the construction thereof</t>
+  </si>
+  <si>
+    <t>whole of the second in the building ground floor entrances leading thereto (one being between 50b and 52 Parliament Street other leading from King's Road) the ground floor internal store first floor roof terrace and that fourth floor situated above that third floor more particularly set out in the Lease and</t>
+  </si>
+  <si>
+    <t>As to the parts tinted blue filed plan only rear entrance halls passages and staircases (other than any entrance hall passage or staircase situated within any of the flats) foundations attic and outer roof of the blocks of flats are included in the title tinted green filed plan is excluded from the title</t>
+  </si>
+  <si>
+    <t>exluding from the title so much (if any) of that as comprises a highway which is maintained (but only so much of the relevant vested in the relevant Highway Authority)</t>
+  </si>
+  <si>
+    <t>comprising transformer chambers, cooler chambers, switch gear chambers, cable chambers, control rooms, switch rooms, ventilation chimneys ventilation shafts and other areas basement floor, ground floor, first floor, second floor, third floor, fouth floor and roof slab levels which lies within the area</t>
+  </si>
+  <si>
+    <t>excluding from the title so much (if any) of as comprises a Highway which is maintained (but only so much of the relevant vested in the relevant Highway Authority)</t>
+  </si>
+  <si>
+    <t>the gardens carriageways entrances passageways corridors entrance halls passages and staircases other than the corridors entrance halls passages and staircases (if any) within the flats in the main building roof timbers outer roof and foundation of the said main building of the property</t>
+  </si>
+  <si>
+    <t>Twelve self contained residential units</t>
+  </si>
+  <si>
+    <t>comprising the whole of the first and roof with structures staircase, lift, entrancehall and entrance way with canopy over the same and along the front of the building and basement switch gear room and three storerooms but excluding the whole of @ASP the demised premises</t>
+  </si>
+  <si>
+    <t>held under a Deed of Grant details of which are shown below:- TERM DATE PARTIES YEARS FROM RENT 4th October in the 1 John Aspsley 10000 from the Twelve pence 23rd year of the date of the and twelve reign of Her Late 2 William Lee said Deed pence for Majesty Queen relief upon Elizabeth death or alienation</t>
+  </si>
+  <si>
+    <t>Ground to Eighth Floor Flats being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the First, Second, Third, Fourth, Fifth, Sixth </t>
+  </si>
+  <si>
+    <t>within the area edged red title plan of the above title filed Registry Ground Floor 1 to 6, 9, 10, 11, 12, 14 to 21, 24 to 29, 31 to 35, 38 to 57, 66, 67 and 68 7, 8, 22, 23, 30, 36, 37, 58 to 65, 69 to 84 and 119</t>
+  </si>
+  <si>
+    <t>the basement, and roof void being</t>
+  </si>
+  <si>
+    <t>within the area edged red title plan of the above title filed Registry and as to the first thereof more particularly described in the Deed of Covenant dated 11 May 1954 and made between (1) Ronald Edgar Simons and (2) Thomas Gerald Simons referred to below</t>
+  </si>
+  <si>
+    <t>vaults basement the retaining wall of such vaults ceiling of such vaults (which said ceiling extends upwards from the underside thereof to a level two feet six inches or thereabouts below the surface of the footways of Fenchurch Street and Callum Street situated above the same) in the building</t>
+  </si>
+  <si>
+    <t>ground, first premises within the area edged red and tinted blue title plan of the above title filed Registry, basement meeting room shown edged red and tinted pink and second floor print room shown edged red and tinted yellow said plan and being Office premises</t>
+  </si>
+  <si>
+    <t>the facing walls and underside of the roof of the Tunnel ground floor level, the top running surface of the Car Park, @ASP the building currently or from time to time during the Term Ground Floor, Ground Floor Mezzanine, First Floor and First Floor Mezzanine Levels of</t>
+  </si>
+  <si>
+    <t>the stratum of sub-soil 11 metres in depth or thereabouts the upper surface of which stratum of sub-soil is a level equivalent to 13.10 metres or thereabouts below the length of the roadway Church Alley, Liverpool aforesaid point indicated by the letter X filed plan, beneath</t>
+  </si>
+  <si>
+    <t>and escape corridors meaning the volumetric space promenade and plaza levels in the positions tinted pink supplementary plan numbered 1 to the filed plan architectural cornice western facade of the building tenth floor level including occupied by such cornice</t>
+  </si>
+  <si>
+    <t>NOTE 1: As to the part tinted blue filed plan only the Basement is included in the title. NOTE 2: As to the part tinted pink filed plan only the is included in the title. NOTE 3: As to the part tinted yellow filed plan only the Ground floor is included in the title</t>
+  </si>
+  <si>
+    <t>being subsoil of</t>
+  </si>
+  <si>
+    <t>and of constructing (but by underground workings only) maintaining in or through such subsoil or undersurface tunnels and works authorised by the said Act of 1955, and with the space occupied by such tunnels and works subsoil excavated in the construction thereof</t>
+  </si>
+  <si>
+    <t>M O D Site I D:-PLY028068601</t>
+  </si>
+  <si>
+    <t>the amenity areas of the buildings</t>
+  </si>
+  <si>
+    <t>filed Registry and as to the blocks tinted blue includes the main structure, the soil thereunder, the roof, foundations, principal internal supporting joists and load bearing internal walls but excludes the flats and any garages therein as is</t>
+  </si>
+  <si>
+    <t>MOD SITE ID:-PLY028068601</t>
+  </si>
+  <si>
+    <t>@ASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ASPs of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.457 of a metre in width the upper limit of which being 0.610 of a metre below the surface lower limit being 8.536 metres below the upper limit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.457 of a metre in width the upper limit of which being 0.610 of a metre below the surface lower limit being 8.536 metres below the upper limit, and being between </t>
+  </si>
+  <si>
+    <t>1 metre in width a depth of 0.610 metres below the surface (upper limit) extending to a depth of 8.534 metres below the upper limit and a depth of 24.390 metres below the upper limit between points B and C filed plan</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan only the first floor staff room is included in the title As to the part tinted yellow filed plan the rooms over the passageway are not included in the title</t>
+  </si>
+  <si>
+    <t>baggage stores and other premises appurtenant thereto</t>
+  </si>
+  <si>
+    <t>MOD Site I D:- PLY005066301</t>
+  </si>
+  <si>
+    <t>MOD Site I D:-PLY005066301</t>
+  </si>
+  <si>
+    <t>M O D Site ID:-PLY054071201</t>
+  </si>
+  <si>
+    <t>MOD SITE ID:-PLY054071201</t>
+  </si>
+  <si>
+    <t>The @MNS the roadway point marked 'x' in blue title plan is as to the part numbered 1 in blue filed plan excluded from the title</t>
+  </si>
+  <si>
+    <t>11 metres in depth or thereabouts the upper surface of which stratum is 18.9 metres or thereabouts below the surface of</t>
+  </si>
+  <si>
+    <t>point X filed plan and 17.5 metres or thereabouts below the surface of Hatfields point XX filed plan</t>
+  </si>
+  <si>
+    <t>shown edged red title plan. The registration of Units S1-S9 (Inclusive) and Units 46-51 (Inclusive) includes only those the ground floor, first floor, second floor, third floor, fourth floor and fifth floor shown tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>MNOTE: The whole building East Market Building is edged red title plan. The registration of 12 East Market Building includes only those the ground floor stall tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>138 dwellings being</t>
+  </si>
+  <si>
+    <t>entrance lobbies and staircases leading therefrom, the liftshafts and refuse areas car park all of which are situated either or above the as are</t>
+  </si>
+  <si>
+    <t>within the area edged red and tinted blue title plan of the above title filed Registry and basement parking space number 5 edged red and tinted yellow supplementary title plan</t>
+  </si>
+  <si>
+    <t>and that @ASP the height of 400 millimetres from the present parapet level of the house 45 Wilton Square between points filed plan and extending 700 millimetres points A to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> but excluding the commercial premises ground floor thereof in respect of </t>
+  </si>
+  <si>
+    <t>and including one half part in width of the wall site thereof ground floor level between the points A and C and first floor level between points B and C title plan</t>
+  </si>
+  <si>
+    <t>The whole building 199 Westminster Bridge Road is edged red title plan. The registration includes only those the basement, basement mezzanine, ground floor, ground floor mezzanine, first tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>(lower)</t>
+  </si>
+  <si>
+    <t>(ground floor flat)</t>
+  </si>
+  <si>
+    <t>(second floor flat)</t>
+  </si>
+  <si>
+    <t>(first floor flat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 feet 6 inches (6.858m) in width and thirty feet (9.144m) in depth but excluding the top two feet six inches (0.762m) thereof in the parishes of </t>
+  </si>
+  <si>
+    <t>any conduits trees and plants which are now or hereafter in and subsoil mentioned in the following note</t>
+  </si>
+  <si>
+    <t>NOTe:-The property comprises the basement level of the part numbered 1 filed plan, the ground floor level of the parts numbered 1, 2 and 5 first floor level of the parts numbered 1, 2, 3 and 4</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan, only the upper floor is included in the title As to the part tinted pink filed plan, the ground floor upper floor is included in the title The mines and minerals excepted by the Lease are excluded from this registration</t>
+  </si>
+  <si>
+    <t>including @ASP the main roof level of the said building the ground floor service roadways and areas basement under part thereof more particulary described in the lease</t>
+  </si>
+  <si>
+    <t>As to the part numbered 1 filed plan only the first is included in the title As to the part numbered 2 filed plan only is included in the title As to the part numbered 3 filed plan only is included in the title</t>
+  </si>
+  <si>
+    <t>The whole main building Peel House is edged red filed plan The registration of 31 Peel House includes only that third floor tinted pink supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the passageway running between the rear of Kingsmead Avenue and Wood Close and leading into Kingsmead Avenue the rear of</t>
+  </si>
+  <si>
+    <t>within the area edged red and tinted blue filed plan of the above title filed Registry 35 edged red and tinted pink store cupboard edged red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t>The whole main building Cavendish Court is edged red filed plan The registration of 38 Cavendish Court includes only those the fifth tinted pink supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t>for the terms created by the lease of which the following are short particulars registered rentcharge is subject to all obligations and liabilities incident to the Leasehold term</t>
+  </si>
+  <si>
+    <t>As to the part tinted yellow filed plan only the second floor is included in the title As to the part tinted blue filed plan only the first are included in the title As to the part tinted pink filed plan only the first floor is included in the title</t>
+  </si>
+  <si>
+    <t>and other</t>
+  </si>
+  <si>
+    <t>more particularly shown supplementary plan by pink tinting</t>
+  </si>
+  <si>
+    <t>as . The half level between the ground floor and basement tinted pink supplementary plan basement tinted blue supplementary plan which forms 550 Kingsland Road is excluded from the title</t>
+  </si>
+  <si>
+    <t>excluding from the title so much (if any) of that as comprises a highway which is maintained pulic expense but only so much of the relevant vested in the relevant Highway Authority</t>
+  </si>
+  <si>
+    <t>MOD SITE ID:- PLY037069501</t>
+  </si>
+  <si>
+    <t>M O D Site I D:-PLY 037069501</t>
+  </si>
+  <si>
+    <t>The whole building Royal Priors Shopping Centre is edged red title plan. The registration of 59 The Parade includes only those the lower and upper ground, levels 3,4,5 and 6 tinted pink supplementary plans</t>
+  </si>
+  <si>
+    <t>The whole of Mutley Court is edged red filed plan The title includes only the first, second and attic floor maisonette shown tinted pink supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t>within the area edged red and tinted blue title plan of the above title filed Registry and basement parking space number 83 edged red and tinted yellow supplementary title plan</t>
+  </si>
+  <si>
+    <t>MOD SITE ID:- PLY016067401</t>
+  </si>
+  <si>
+    <t>MOD Site ID:-PLY01606741</t>
+  </si>
+  <si>
+    <t>As to the part tinted blue filed plan only the lower maisonette is included in the title the pathway leading from the back of the building into Mossford Lane</t>
+  </si>
+  <si>
+    <t>Details of the leases under which is held are contained in the Property Register Schedule hereto. No further evidence was lodged as to which lease this title was comprised</t>
+  </si>
+  <si>
+    <t>NITE: This title only includes the subsoil below a depth of 0.61m from the surface (the upper limit) and extending 8.536m below the upper limit and having a width of 0.457m</t>
+  </si>
+  <si>
+    <t>shown by a red line filed plan between the points A and B being the Subsoil in 1m in width and a depth of 0.61m beneath the surface (upper limit) and extending to 8.534m below the upper limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a strip of subsoil and under surface 0.457 of a metre wide the upper limit of which is 0.610 of a metre below the surface lower limit of which is 8.536 metres below the said upper limit and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a strip of Subsoil and under surface 0.457 of a metre wide the upper limited of which is 0.610 of a metre below the surface lower limit of which is 8.536 metres below the said upper limit and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a strip of subsoil and under-surface 0.457 of a metre wide, the upper limit of which is 0.610 of a metre below the surface and a lower limit of which is 8.536 metres below the said upper limit and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a subterranean , the upper limit being 0.3m above the centre line of the cable (as laid) and no higher than than 0.7m below the original surface of lower limit being 3m below the centre line of the cable (as laid) and </t>
+  </si>
+  <si>
+    <t>a subterranean</t>
+  </si>
+  <si>
+    <t>the upper limit of being 0.3m above the centre line of the cable (as laid) or (if lower) 0.5m below the original surface of lower limit being 3m below the centre line of the cable</t>
+  </si>
+  <si>
+    <t>a subterranean the upper limit being 0.3m above the centre line of the cable (as laid) or (if lower) 0.5m below the original surface of lower limit being 3m below the centre line of the cable (as laid) and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a subterranean the upper limit being 0.3m above the centre line of the cable (as laid) or (if lower) 0.5m below the original surface of lower limit being 3m below the centre line of the cable (as laid) and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a subterranean the upper limited being 0.3m above the centre line of the cable (as laid) or (if lower) 0.5m below the original surface of lower limited being 20m below the centre line of the cable and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a subterranean the upper limited being 0.3m above the centre line of the cable (as laid) or (if lower) 0.5m below the original surface of lower limited being 3m below the centre line of the cable and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all edged with red except those areas basement, ground, 1st coloured blue and orange plans LE02, LE03, LE04 and LE05 in the lease being </t>
+  </si>
+  <si>
+    <t>all that quarries strata seams and beds of sand and gravel which may be got by quarrying and excavations from the surface and open to the daylight and not underground workings within or under</t>
+  </si>
+  <si>
+    <t>all that strip of subsoil 18 inches in width shown by a nominal red line between points X and Y filed plan with an upper limit of 3 feet and a lower limit of 27 feet below the said upper limit,</t>
+  </si>
+  <si>
+    <t>Stuart Tower 105 Maida Vale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an electricity substation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">an Oil Tank site Mews, Great Yarmouth pipes pumps meters valves manholes and connections from the Oil Tank site leading to or one hundred and fifty eight dwelling houses </t>
+  </si>
+  <si>
+    <t>and basement first</t>
+  </si>
+  <si>
+    <t>as varied by the Deed dated 11 April 1995 referred to below whereby the extent of demised by the lease basement level was varied and other terms of the lease were varied</t>
+  </si>
+  <si>
+    <t>and roof terrace being</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and tinted blue plan of the above title filed Registry and store room shown edged with red and tinted pink and tinted yellow respectively supplementary plan 1</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and tinted blue plan of the above title filed Registry space number 185 shown edged with red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> within the area shown edged with red and tinted blue plan of the above title filed Registry numbered 238 and 239 shown edged with red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and tinted blue plan of the above title filed Registry space and store room shown tinted pink and yellow respectively supplemental plan 1</t>
+  </si>
+  <si>
+    <t>within the area edged red and tinted blue title plan of the above title filed Registry and level 3 parking space number 168 edged red and tinted yellow supplementary title plan</t>
+  </si>
+  <si>
+    <t>within the area edged red and tinted blue title plan of the above title filed registry and level 3 parking space number 169 edged red and tinted yellow supplementary title plan</t>
+  </si>
+  <si>
+    <t>as the areas edged red drawing PL01 to PL06 levels shown those plans proposed building to be</t>
+  </si>
+  <si>
+    <t>and further including and excluding as set out in Part1 of Schedule 1 to the said Lease</t>
+  </si>
+  <si>
+    <t>and being such subsoil and under surface of the said as comprises a strip thereof 0.915 metres in width as falls within an upper limit of 0.4572 of a metre below the surface and a lower limit of 30.480 metres below the said upper limit</t>
+  </si>
+  <si>
+    <t>being the surface thereof @ASP and that those the subsoil into which any pipes cables service ducts or conducting media may be placed foundations or support of any building or structure</t>
+  </si>
+  <si>
+    <t>Basement excluding the boiler room (Flats), Ground Floor excluding the stairway, lift and binstores (Flats) First excluding the stairway and lift (Flats) and being</t>
+  </si>
+  <si>
+    <t>basement, ground floor, mezzanine and deck levels, and nine storey office tower ground floor cycle store,</t>
+  </si>
+  <si>
+    <t>within the area edged red title plan of the above title filed Registry</t>
+  </si>
+  <si>
+    <t>shown edged red title plan. The registration of the lease comprises only that basement, ground, first, second tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>being a sub soil and under surface of strip thereof 0.457 of a metre wide, being below a depth of 0.610 of a metre below ground level and above a depth of 8.536 metres below the upper limit and being</t>
+  </si>
+  <si>
+    <t>being site for</t>
+  </si>
+  <si>
+    <t>held under a Lease comprising also other dated 20 October 1651 for a term of 1,000 years from the death or determination of the life estate of Sarah Burton rent of a peppercorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block C, D, E &amp; F Princesshay shown edged red title plan. The registration of </t>
+  </si>
+  <si>
+    <t>comprises only that tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>Block G and H Princesshay shown edged with red plan of the above title. The registration of</t>
+  </si>
+  <si>
+    <t>includes only that second tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>and being such subsoil and under surface of the said as comprised a strip thereof 0.915 metres in width as falls within an upper limit of 0.4572 of a metre below the surface and a lower limit of 30.480 metres below the said upper limit</t>
+  </si>
+  <si>
+    <t>including the tower block Moravian Tower comprising basement ground and upper floor premises including fifty flats car park ramp, the surfaces of the first floor car park car park area all of which premises are</t>
+  </si>
+  <si>
+    <t>comprising 52 Residential Flats balconies flats hallways staircases binstores and basement boiler room shown more particularly tinted pink several floor level plans drawn supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t>bungalow sites</t>
+  </si>
+  <si>
+    <t>by the red line lettered A-B plan of the above Title filed Registry being 0.457 of a metre in width the upper limit being 0.610 of a metre , the lower limit being 8.536 metres below the said upper limit</t>
+  </si>
+  <si>
+    <t>Car parking accomodation of 9 decks of the building with the office store, two W Cs, two ventilation plants and lift therein ramps and sidewalks thereto and therefrom</t>
+  </si>
+  <si>
+    <t>comprising lower ground floor level the parts tinted yellow, pink and blue filed plan: main ground floor level the parts tinted pink and blue; first second third and fourth floor levels the part tinted blue</t>
+  </si>
+  <si>
+    <t>comprising of lower ground floor level the parts tinted yellow, pink and blue filed plan main ground floor level the parts tinted pink and blue first, second third and fourth floor levels the part tinted blue</t>
+  </si>
+  <si>
+    <t>As to the parts tinted blue filed plan only the main walls, foundations, roofs, roofspace and all other parts which have not been, or are intended to be, demised to individual Leases are included in this title</t>
+  </si>
+  <si>
+    <t>Cribbar shown edged with red plan of the above title plan. The registration of</t>
+  </si>
+  <si>
+    <t>comprises only those level 1 and 4 tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>having a width of 2 feet and including only the subsoil from a depth of 1 foot 6 inches below the surface to a depth of 29 feet 6 inches below the surface</t>
+  </si>
+  <si>
+    <t>St Peters Close and 444 and 444A Field End Road are excluded from the Title</t>
+  </si>
+  <si>
+    <t>As to the parts numbered 1, 2 and 4 in blue filed plan the twelve flats</t>
+  </si>
+  <si>
+    <t>disused railway line Thames to South Cerney, South Cerney, West Bank of Lake 12, car park Lake 12 and</t>
+  </si>
+  <si>
+    <t>is edged red title plan. The registration of</t>
+  </si>
+  <si>
+    <t>includes only those the upper ground floor and mezzanine levels tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>lettered A and B in blue filed plan having a width of 0.6096 of a metre and including only the subsoil from a depth of 0.4572 of a metre below the surface to a depth of 8.534 metres below the surface</t>
+  </si>
+  <si>
+    <t>and gas pipework, heating pipework, cooling water pipework and electricity network infrastructure</t>
+  </si>
+  <si>
+    <t>entrance hall entered from Ovington Gardens the staircase and passenger lift rising therefrom up to the third floor the whole of the third, fourth, fifth penthouse above the sixth floor of the building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt an intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of @MNS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of @MNS and being </t>
+  </si>
+  <si>
+    <t>evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of @MNS and</t>
+  </si>
+  <si>
+    <t>evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of @MNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of @MNS being </t>
+  </si>
+  <si>
+    <t>evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red above title filed Registry and being</t>
+  </si>
+  <si>
+    <t>evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed </t>
+  </si>
+  <si>
+    <t>evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed Registry and being</t>
+  </si>
+  <si>
+    <t>evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above title filed Registry and being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed Registry and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed Registry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed Registry being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above title filed Registry being </t>
+  </si>
+  <si>
+    <t>evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above title filed Registry</t>
+  </si>
+  <si>
+    <t>evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed Registry</t>
+  </si>
+  <si>
+    <t>evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above title filed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of shown edged with plan of the above Title filed Registry and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of teh edged with red plan of the above Title filed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of the area @MNS and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of which lies within the area @MNS and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of which lies within the area @MNS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below as depth of 800m from the surface of edged with red plan of the above Title filed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed Registry and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals (including void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals(including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals(including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed Registry and being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt and intermingled minerals; (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhalite, salt ind intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites including potash, polyhgalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporites, including potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed Registry and being </t>
+  </si>
+  <si>
+    <t>but except so much of the substration or soil beneath the surface of as is occupied by foundations of buildings or works connected with the railway of the Metropolitan Railway Company (now London Transport Board)</t>
+  </si>
+  <si>
+    <t>and two ground floor stores within the area edged red and tinted blue filed plan of the above title filed Registry and garden ground edged red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First numbered </t>
+  </si>
+  <si>
+    <t>the whole of the main building Martin Court has been edged red filed plan The registration of Flat 16, storeroom 16 14 includes only those the Ground Floor and basement shown tinted pink supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t>As to the part tinted pink filed plan only is included in the title As to the part tinted blue filed plan only the ground floor garage is included in the title</t>
+  </si>
+  <si>
+    <t>As to the part tinted pink filed plan only is included in the title As to the part tinted yellow filed plan only and ground floor store is included in the title As to the part tinted blue filed plan only the ground floor store is included in the title</t>
+  </si>
+  <si>
+    <t>The whole main building Kirk House is edged red filed plan The registration of 32 Kirk House includes only those the building tinted pink supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t>The whole main building Sutton Annexe is edged red title plan The registration of flat 35 includes only that second, second mezzanine and roof floors tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>As to the part Numbered 1 filed plan only is included in the title As to the part Numbered 2 and 3 filed plan only the Garage is included in the title</t>
+  </si>
+  <si>
+    <t>excluding the ground floor and excluding such upper building as is comprised in the flat roof of any rear addition to the commercial premises ground floor</t>
+  </si>
+  <si>
+    <t>flats and Common parts above Ground Floor level entrance hall and stairs leading thereto lift serving the same roof and roof space thereover, being</t>
+  </si>
+  <si>
+    <t>flats fourth, fifth and sixth levels being</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and tinted pink supplementary plan plan of the above title filed Registry</t>
+  </si>
+  <si>
+    <t>floors 1 to 14 (inclusive)</t>
+  </si>
+  <si>
+    <t>within the area shown tinted mauve supplementary plan of the above title filed Registry (basement levels 1 and 2) as shown tinted pink said supplementary plan</t>
+  </si>
+  <si>
+    <t>portion of the leasehold foreshore (foreshore) seawards of the red line (the red line) between the points A, B, C and D shown plan of the above title (the title plan) The foreshore lies in the parishes of Marhamchurch and Poundstock</t>
+  </si>
+  <si>
+    <t>The whole of the main building College Square has been edged red filed plan The registration includes only those the basement tinted pink supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As to filed plan the the buildings above ground floor level are excepted from the registration yellow filed plan the boiler house and economiser space above ground level is excepted from the registration</t>
+  </si>
+  <si>
+    <t>The respective extents of the several floors are shown said plan by the references thereon PLAN REFERENCE FLOOR AFFECTED blue and brown tint ground floor blue, yellow, brown and pink tint first blue and yellow tint plant room above</t>
+  </si>
+  <si>
+    <t>ground below street level, a raft street level of</t>
+  </si>
+  <si>
+    <t>Rents buildings structures and escape staircase referred to in the lease but excluding the subsoil undersurface arches and space above the highest point of the existing buildings and structures as referred to in the lease</t>
+  </si>
+  <si>
+    <t>ground, first and second floor rooms being</t>
+  </si>
+  <si>
+    <t>within the area edged red and tinted pink title plan of the above title filed Registry and outbuildings and garden ground edged red and tinted blue said plan</t>
+  </si>
+  <si>
+    <t>ground, first</t>
+  </si>
+  <si>
+    <t>ground, first, second and third floor levels comprising a multistorey car park</t>
+  </si>
+  <si>
+    <t>NOTE: The means of support thereof and access thereto , are included in the title</t>
+  </si>
+  <si>
+    <t>ground, first, second, third, fourth, fifth and six floors being</t>
+  </si>
+  <si>
+    <t>ground, mezzanine, second</t>
+  </si>
+  <si>
+    <t>within the area edged with red plan of the above title filed Registry more particularly shown tinted pink in supplementary plan 1</t>
+  </si>
+  <si>
+    <t>The whole of the site has been edged red title plan. This registration of Guildbourne Court includes only those the ground first second third tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>and comprises forecourt, entrance hall, stairs landings, paved areas, ramps, basement car park, first, boiler room and roof top tank room all of which premises are</t>
+  </si>
+  <si>
+    <t>dated 23 November 1979 made between British Railways Board and Ladbroke Dragonara International Hotels Limited and formerly registered under title number NGL366142</t>
+  </si>
+  <si>
+    <t>(middle promenade level)</t>
+  </si>
+  <si>
+    <t>being the basement, ground floor with exception of the loading area and other parts five upper floors and roof with plant rooms more particularly referred to in the lease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown edged red title plan. The registration of </t>
+  </si>
+  <si>
+    <t>includes only that ground floor tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>the respective extents of the several floors included in the title being shown tinted pink supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t>lower basement (levels -4 and -3) basement (level -2) lower ground (level -1) ground (level O) and first to eighth floors basement mezzanine area being office premises</t>
+  </si>
+  <si>
+    <t>As to the main building edged red filed plan only those the basement ground first second third tinted pink supplementary plan to the filed plan are included in the title</t>
+  </si>
+  <si>
+    <t>and such Rights of Fishing and otherwise in portions of the River Colne shown and coloured blue said plan and in said River as are hereunder specified namely</t>
+  </si>
+  <si>
+    <t>Mills Bakery, Royal William Yard shown edged red title plan. The registration of</t>
+  </si>
+  <si>
+    <t>comprises only that level 2 tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that levels 3 and 4 tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>comprises only that level 3 tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that level 3 tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that level 4 tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comprises only that levels 4 and 5 tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>comprises only that level 4 tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> includes only that ground floor/level 1 tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>more particularly described in and levels shown in the lease, and</t>
+  </si>
+  <si>
+    <t>and further including and excluding those parts as set out in the Third Schedule to the said lease</t>
+  </si>
+  <si>
+    <t>north east of</t>
+  </si>
+  <si>
+    <t>within the areas shown edged with red plan of the above title filed Registry</t>
+  </si>
+  <si>
+    <t>Ocean Gate shown edged red title plan. The registration of</t>
+  </si>
+  <si>
+    <t>includes only that basement and second floor tinted pink supplementary plans to the title plan</t>
+  </si>
+  <si>
+    <t>Oceanpoint shown edged red title plan. The registration of</t>
+  </si>
+  <si>
+    <t>includes only that level 0 and level +1 , the store room level - 1 parking space level 0 all shown tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>includes only that levels 2 and 3, the store room level - 1 parking space level 0 all shown tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>only the shops</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the multi-storey car park Back South Parade, the two bridges across Southgate third floor levels 9 and 10, the basement transformer chamber common parts ( various levels) in the Lease referred to</t>
+  </si>
+  <si>
+    <t>pathways driveways gardens dustbin areas passageways an staircases appertaining to and serving the block of flats</t>
+  </si>
+  <si>
+    <t>but excluding any other block or any gutters or down pipes attached thereto or the traps into which the same are discharged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piran Place shown edged red title plan. The registration of </t>
+  </si>
+  <si>
+    <t>comprises only that Levels 48 and 49 tinted pink supplementary plan to the title plan]</t>
+  </si>
+  <si>
+    <t>Plasma Court shown edged red title plan. The registration of</t>
+  </si>
+  <si>
+    <t>includes only that Ground, First, Second, Third, Fourth, tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>and amenities areas</t>
+  </si>
+  <si>
+    <t>potash, polyhalite, salt and intermingled minerals (including any void spaces created) below a depth of 800m from the surface of edged with red plan of the above Title filed</t>
+  </si>
+  <si>
+    <t>shown edged red title plan. The registration of the lease comprises only that ground, first, second, third, fourth tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>railway parts sub-basements (levels -4 and -3) basement (level -2) lower ground floor (level -1) and ground floor to eighth floors and roof</t>
+  </si>
+  <si>
+    <t>residential flats, car parking and other accomodation lower basement, upper basement, ground, first, second, third, fourth, fifth, sixth</t>
+  </si>
+  <si>
+    <t>retail units floor promenade and floor plaza tinted pink supplementary plans numbered 1 and 2 to the filed plan</t>
+  </si>
+  <si>
+    <t>excluding the structures excluded by the Deed of Variation and Transfer dated 4 December 1997 referred to below</t>
+  </si>
+  <si>
+    <t>within the area edged red and tinted blue title plan of the above Title filed Registry ground floor area of the said Mills edged red and tinted pink said plan</t>
+  </si>
+  <si>
+    <t>1:-As to the part tinted pink filed plan only the upper ground, first are included in the title</t>
+  </si>
+  <si>
+    <t>and other areas lettered A, B, C and D</t>
+  </si>
+  <si>
+    <t>shown and tinted pink and blue plan of the above title, being</t>
+  </si>
+  <si>
+    <t>shown and tinted pink and blue plan of the above title, being West Street, Sompting</t>
+  </si>
+  <si>
+    <t>shown tinted pink supplementary plan to the title plan being</t>
+  </si>
+  <si>
+    <t>shown with a red line between points marked A,B,C,D,E,F and G plan of the above title filed Registry registered 28 June 1984 being width 1.457 metres and in depth 8.536 metres excluding the top 0.610 metres thereof</t>
+  </si>
+  <si>
+    <t>Storage Pods SB25, SB49 to SB54 (inc) SB66 to SB70 (inc) SB72, SB73, SB81 to SB88 (inc) SD14 to SD21 (inc) SD33 to SD46 (inc), SD47 and SD60,</t>
+  </si>
+  <si>
+    <t>Storage Pods SC246, SC247, SC248, SC249, SC250, SC251, SC252, SC253, SC254, SC256, SC257, SD088, SD089, SD090, SD091, SD092, SD093, SD,094 and SD095</t>
+  </si>
+  <si>
+    <t>Storage Pods SC61, SC62 (second floor), TB40A-TB48A (inclusive), TC50B-TC54B (inclusive), TC55A, TC55B, TC56B, TC63B, TC64A, TC87A, TD04A, TD23A, TD26A, TD66A, TD67A, TD90A-TD93A (inclusive) and TE41A-TE50A (third floor) (inclusive)</t>
+  </si>
+  <si>
+    <t>Store pods fd033, fd034, fd035, fd036, fd110, fd111, fd119, fd120, sa001, sa002, sa003, sa004, sb087, sd202, sd203 and sd204</t>
+  </si>
+  <si>
+    <t>Store pods gb003, gb004, gb009, tb046b, tb057b, tb058a, tb059b, tb060b, tb061b, tb062b, tb063b, tb064b, tb065b, tb066b, tb067b, tb068b, tb069b, tb070b, tb071b, tb072b, tb112b, tb135b, tb136b, tb138b, tb139b, tb140b, tb141b, and tb142b</t>
+  </si>
+  <si>
+    <t>subsoil Victoria Line Tube Railway more particularly described in the Transfer dated 3 April 1974 made between (1) The Prudential Assurance Company Limited and (2) London Transport Executive, being</t>
+  </si>
+  <si>
+    <t>such subsoil and under-surface as comprises a strip thereof 0.6096 of a metre (2 feet) in width, the upper limit being 0.4572 of a metre (1 foot 6 inches) the lower limit being 8.534 metres (28 feet) below the upper limit and situated</t>
+  </si>
+  <si>
+    <t>such subsoil and undersurface with an upper limit of 0.7 metres below the original surface of lower limit of 20 metres below the original surface of which lies under the area @MNS and being subsoil</t>
+  </si>
+  <si>
+    <t>such the ground, first, second, third and plant floors as and being</t>
+  </si>
+  <si>
+    <t>telecommunications apparatus roof level</t>
+  </si>
+  <si>
+    <t>dated 22 September 2004 made between (1) Stoll Construction Limited and (2) Orange Personal Communications Services Limited</t>
+  </si>
+  <si>
+    <t>Stapleford Croft A North Winterbourne Croft A South Stonehenge Croft B North Linpole Walk C East Pound Road D East Garratts Walk E North Kimpton Croft F North Baverstock Road G South Manningford Road H and Manningford Road J</t>
+  </si>
+  <si>
+    <t>that sub-soil beneath the leasehold shown edged with red filed plan, beneath</t>
+  </si>
+  <si>
+    <t>the levels whereof are shown plan No 2 annexed to the Assignment of the sub-soil dated 3 February 1978 made between (1) The Post Office and (2) British Railways Board</t>
+  </si>
+  <si>
+    <t>except all cellars and vaults in or under existing or any substituted gratings pavement lights cellar openings cellar flaps and coal plates (if any) right to maintain and enjoy the same for the purposes of light and access to such cellars and vaults</t>
+  </si>
+  <si>
+    <t>the areas Northern and Southern walls of</t>
+  </si>
+  <si>
+    <t>demised by the Lease referred to below which lie red lines between Points between Points C and D filed plan of the above title filed Registry</t>
+  </si>
+  <si>
+    <t>the Basement and Cellars, Rooms Sub-Ground Floor Level, Mezzanine Floor between and First, Second and Third Floor Living Accommodation being</t>
+  </si>
+  <si>
+    <t>the basement and sub</t>
+  </si>
+  <si>
+    <t>the basement level, ground floor, first floor, second floor, third floor, fourth floor, fifth floor and roof level being</t>
+  </si>
+  <si>
+    <t>within the area edged red title plan of the above title filed registry and more particulary described in the lease</t>
+  </si>
+  <si>
+    <t>the basement the surface of the ground floor lift shaft to the basement car park the first (inclusive) the roof and plant rooms sixth floor level roofs of the plant rooms of the building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the basement, ground floor (excepting the loading area and other parts), five upper floors and roof (including plants rooms) more particularly referred to in the lease being </t>
+  </si>
+  <si>
+    <t>the basement, ground floor, first floor and roof level of</t>
+  </si>
+  <si>
+    <t>within the area tinted blue filed plan of the above title filed Registry tinted pink and yellow said plan</t>
+  </si>
+  <si>
+    <t>the basement, ground, mezzanine, first, second, third lift shaft extensions and mechanical plant areas including the roof area itself so far as included within such extensions and areas, all of which forms</t>
+  </si>
+  <si>
+    <t>the beds strata and deposits of sand gravel and bunter sandstone within and under the ground which may be obtained by workings open to day light and not by underground workings as defined in the lease short particulars of which are given below</t>
+  </si>
+  <si>
+    <t>but not including contained in a Deed of Surrender dated 23 February 2004 and made between (1) Heathrow Airport Limited and (2) British Airways PLC</t>
+  </si>
+  <si>
+    <t>the building, first floor balconies, recycling bin store, dustbin store and external wall fences and gates but excluding the flats within the building and gardens being</t>
+  </si>
+  <si>
+    <t>the car parking accommodation of 9 decks of the building with the office store, two W Cs, two ventilation plants and lift therein ramps and sidewalks thereto and therefrom</t>
+  </si>
+  <si>
+    <t>the structure of the main building, entrance hall, staircases, landings, passages, lifts and all other common the building and structure within the area tinted blue title plan</t>
+  </si>
+  <si>
+    <t>The common</t>
+  </si>
+  <si>
+    <t>the common staircases, corridors, landings, porch, steps and driveway, the main structural the building including the roofs, foundations and external walls, and all cisterns, tanks, pipes, drains, meters, wires and cables being</t>
+  </si>
+  <si>
+    <t>the communication equipment roof being</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> within the area shown edged with red and tinted pink plan of the above title filed Registry and shown edged with red and tinted blue said plan</t>
+  </si>
+  <si>
+    <t>The Demised Premises more particularly described in the First Schedule of the Lease dated 21 November 2012 referred to below which lies within the area shown comprising the of</t>
+  </si>
+  <si>
+    <t>the first and loft space being</t>
+  </si>
+  <si>
+    <t>locker number 9 lower ground floor within the area shown edged with red and tinted blue plan of the above title filed Registry shown edged with red said plan</t>
+  </si>
+  <si>
+    <t>the first and second floor maisonette being</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> within the area tinted blue title plan of the above title filed Registry Number 11 edged red said plan</t>
+  </si>
+  <si>
+    <t>the first, second</t>
+  </si>
+  <si>
+    <t>two ground floor entrance halls and staircases leading to the same two basement boiler rooms serving the same</t>
+  </si>
+  <si>
+    <t>the ground, first, second and roof being</t>
+  </si>
+  <si>
+    <t>within the area edged red filed plan of the above title and more particularly shown edged yellow supplementary plans to the filed plan</t>
+  </si>
+  <si>
+    <t>the Ground, First, Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> within the area edged red filed plan and more particularly delineated and shown tinted pink several floor level plans supplementary plan to the filed plan</t>
+  </si>
+  <si>
+    <t>exclusive of the foundations and subsoil under the demised premises air space and concrete pillars and other structures up to and including the concrete slab of the ceiling of the demised premises</t>
+  </si>
+  <si>
+    <t>the Kitchen basement floor level, Fosse Lion Tower basement, and second floor bedroom, Hunters Block , Directors Flat mezzanine level between and Barbican ground, first</t>
+  </si>
+  <si>
+    <t>The leasehold</t>
+  </si>
+  <si>
+    <t>demised by the lease referred to below comprises sub-soil and under surface of filed plan, 0-915m in width to an upper limit of 0-457m below the surface and a lower limit of 30.48m below the said upper limit of</t>
+  </si>
+  <si>
+    <t>the Leasehold demised by the Lease referred to below registered 11 July 2008 within the area edged red title plan of the above title filed Registry and comprising the Telecommunications Mast roof of Barrie House basement floor of</t>
+  </si>
+  <si>
+    <t>the Leasehold demised by the Lease referred to below which comprises</t>
+  </si>
+  <si>
+    <t>Sale cupboard belonging thereto within the area tinted blue Garage Numbered 10 edged blue with red title plan</t>
+  </si>
+  <si>
+    <t>the leasehold demised by the lease referred to below which lies within the area shown filed Registry being teh roofspace area and @ASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Leasehold shown by the red line lettered A-B plan of the above Title filed Registry being 0.457 of a metre in width the upper limit being 0.610 of a metre the lower limit being 8.536 metres below the said upper limit </t>
+  </si>
+  <si>
+    <t>the lower basement (level -3) basement (level -2) lower ground (level -1) ground (level 0) and first</t>
+  </si>
+  <si>
+    <t>the Lower Ground, Mezzanine, Ground, First, Second, Third</t>
+  </si>
+  <si>
+    <t>NOTE: The space over roof over the first floor space over the whole roof over the Fourth are included in the title</t>
+  </si>
+  <si>
+    <t>the lower mezzanine floor level, the ground floor level, the upper mezzanine floor level plant area roof and service area roof levels being a retail foodstore</t>
+  </si>
+  <si>
+    <t>the main entrances, corridors, passages, hallways, landings, stepways and other the property capable of being used in common by owners or occupiers of two or more flats main structural the building as being</t>
+  </si>
+  <si>
+    <t>the main structure with entrance halls passages staircases corridors landings lifts and lift shafts porters accommodation messrooms stores boilers and ancillary accommodation in the block of flats</t>
+  </si>
+  <si>
+    <t>garden and forecourts and more particularly described in the said lease</t>
+  </si>
+  <si>
+    <t>the motor vehicle refuelling facility and forecourt</t>
+  </si>
+  <si>
+    <t>and any petrol interceptor which (provided that it serves solely the demised premises) is situated in or under any other lessors title and any pipes or other media leading thereto from this title</t>
+  </si>
+  <si>
+    <t>the nine flats first, second, the entrance and staircase lower and upper leading thereto, the nine access way and refuse stores lower ground floor thereunder roof thereover being</t>
+  </si>
+  <si>
+    <t>the office accommodation levels 1 to 6, the storage areas platform level, mezzanine level 1 level exclusive right to use the escalators leading from the entrance lobby to level 1 and from level 1 to level 2</t>
+  </si>
+  <si>
+    <t>the plant rooms more particularly described in the Principal Lease also referred to below within the area edged red and tinted blue title plan of the above title filed</t>
+  </si>
+  <si>
+    <t>the plant rooms more particularly describededged red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the plant rooms more particularly described in the Principal Lease also referred to below within the area edged red and tinted blue title plan of the above title filed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edged red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t>the public conveniences ground floor level, the multi-storey car park first floor level and above, but excluding the plant room first floor, but including the staircase and ramp down to ground floor level two automatic lifts, building</t>
+  </si>
+  <si>
+    <t>the quarries, strata, seams, beds of stone, spar and other similar materials (including blue pennant stone) which may be got by quarrying and excavations from the surface and open to the daylight and not by underground workings within or under @MNS</t>
+  </si>
+  <si>
+    <t>the roofs, yards, areas, forecourts, boiler-houses, fuel stores, Caretakers premises, halls, steps, stairs, lift ducts and landings of the building</t>
+  </si>
+  <si>
+    <t>the second, third, fourth and basement shown tinted pink supplementary plan to the filed plan, the terraces second, third shown tinted yellow supplementary plan to the filed plan void third floor level shown tinted blue supplementary plan to the filed plan being</t>
+  </si>
+  <si>
+    <t>incorporating the Lion Head's Fountain and measuring 1.60 metres in each direction from the centre of the Lion Head's Fountain, shown by A and B in blue plan of the above Title filed Registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the site ground floor level of one double tier trilateral display column entrance to the arcade from Market Street and ten illuminated wall panels arcade running from </t>
+  </si>
+  <si>
+    <t>the stratum of sub-soil 6.7 metres in depth or thereabouts beneath tinted yellow title plans the upper surfaces of which strata of subsoil are levels equivalent to 29.3 and 26.3 metres or thereabouts below the levels of</t>
+  </si>
+  <si>
+    <t>points marked X and XX respectively title plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the sub-basement, basement, ground floor, garden annexe and its roof, mezzanine, first floor, second floor, third floor, fourth floor, fifth floor, sixth floor and roof being </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Supermarket ground floor, 47 High Street, Gillingham, the store rooms, staff rooms and conveniences first floor, the car park first floor and ramp leading thereto The three maisonettes first </t>
+  </si>
+  <si>
+    <t>the surface of the housing deck second floor level above</t>
+  </si>
+  <si>
+    <t>residential units to be erected thereon entrance hall and staircase leading from Southampton Street to the housing deck bin store and pump room same all of which is</t>
+  </si>
+  <si>
+    <t>the the ground, mezzanine, first, second, third, fourth shown tinted pink Supplementary Plans numbered</t>
+  </si>
+  <si>
+    <t>the third inclusive of the Tower Block,</t>
+  </si>
+  <si>
+    <t>#within the area edged red and tinted blue title plan of the above title filed Registry and basement area edged red and tinted pink said plan</t>
+  </si>
+  <si>
+    <t>including certain structures but excepting the blocks of flats Fairlie House Gouldings and excepting Grainges Car Park, Cedars Car Park and certain all of which is particularly described in the Lease</t>
+  </si>
+  <si>
+    <t>the twelth floor flat being</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and tinted blue plan of the above title filed Registry space number 180 shown edged with red and tinted yellow said plan</t>
+  </si>
+  <si>
+    <t>the two storey underground car park beneath</t>
+  </si>
+  <si>
+    <t>and below the car park roof, the access ramp, the three escape staircases, the ventilation extract and its housing smoke extracts above the roof of the car park</t>
+  </si>
+  <si>
+    <t>As to the part 1 in blue filed plan only the ground floor is included in the title As to the part 2 in blue filed plan only the external canopy attached to the building 1 in blue filed plan excluding the air space and thereunder is included in the title</t>
+  </si>
+  <si>
+    <t>within the area shown edged with red and tinted pink plan of the above title filed Registry and three ground floor level shown edged with red and tinted blue said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is edged red title plan.This registration includes only those the lower ground,</t>
+  </si>
+  <si>
+    <t>in blue supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>Comprising all those common parts entire property being the fore court, courtyard, car park clothes drying area, pathways, garbage area, drive and gardens of the entire property</t>
+  </si>
+  <si>
+    <t>and certain outbuildings structure of the flat blocks erected thereon as more particularly described in the First Schedule of the lease dated 14 June 1968</t>
+  </si>
+  <si>
+    <t>three electricity sub-stations which lie within the areas edged red plan to the above title filed Registry and comprises only those</t>
+  </si>
+  <si>
+    <t>two storey underground car park beneath</t>
+  </si>
+  <si>
+    <t>and below the car park,with the roof, access ramp and three escape staircases, the ventilation extract and its housing smoke extracts above the roof of the car park</t>
+  </si>
+  <si>
+    <t>two strips of , both 1.007 metres in width, the upper limit being 0.457 metres lower limit being 8.077 metres below the said upper limit (between point A-B, and C-D title plan) Ballast Hole Plantation</t>
+  </si>
+  <si>
+    <t>two strips of , both 1.007 metres in width, the upper limit being 0.457 metres lower limit being 8.077 metres below the said upper limit (between points A-B and C-D title plan) are A169 and</t>
+  </si>
+  <si>
+    <t>NPTE:-The whole main building Drake Circus Shopping Centre is edged red title plan The registration of Unit 22 includes only that Lower Ground Floor Level tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>within the area edged red and tinted pink filed plan of the above title filed Registry basement level edged red and tinted blue and tinted blue hatched blue said plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the exclusive right to use the plant and machinery in the first floor of basement floor of tinted yellow filed plan flues and vents serving this title granted by the Lease dated 29 June 2001 referred to below</t>
+  </si>
+  <si>
+    <t>upper ground floor, rear service area, first floor, first floor mezzanine and plant room, the second, third, fourth, fifth, sixth, seventh, eighth, ninth, tenth, eleventh, twelfth, thirteenth</t>
+  </si>
+  <si>
+    <t>and being such subsoil and under surface of the said as comprises a strip thereof 0.915 metres in width as falls within an upper limited of 0.4572 of a metre below the surface and a lower limit of 30.480 metres below the said upper limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As to filed plan the title extends up to but no further than (and does not include) the underside of the upper deck of the car park The structural walls and columns are excluded from the title</t>
+  </si>
+  <si>
+    <t>which lies between OS Datum levels 49.825 &amp; 52.225, 49.825 &amp; 52.425, 49.825 &amp; 52.625, 49.825 &amp; 53.325 and 49.825 &amp; 53.550</t>
+  </si>
+  <si>
+    <t>which lies within the area filed Registry and comprises the the ground first,</t>
+  </si>
+  <si>
+    <t>more particularly shown tinted pink supplementary plan to the title plan</t>
+  </si>
+  <si>
+    <t>and comprising the common parts and grounds not including the individual flats within the areas tinted blue filed plan being more particularly described in the Third Schedule of the standard form of Lease annexed to the Lease dated 17 January 1975</t>
+  </si>
+  <si>
+    <t>all being 0.457 of a metre in width, the upper limit being 0.610 of a metre the lower limit being 8.536 metres below the said upper limit</t>
+  </si>
+  <si>
+    <t>with red plan more particularly described hereunder No Plan Description 1</t>
+  </si>
+  <si>
+    <t>within the area edged with red plan of the above Title filed Registry and more particularly delineated and tinted pink, yellow and blue four supplementary plans floor levels indicated thereon and being</t>
   </si>
 </sst>
 </file>
@@ -4469,10 +6218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1458"/>
+  <dimension ref="A1:B2653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1429" workbookViewId="0">
-      <selection activeCell="A1441" sqref="A1441"/>
+    <sheetView tabSelected="1" topLeftCell="A1626" workbookViewId="0">
+      <selection activeCell="A1644" sqref="A1644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8082,7 +9831,7 @@
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A697" t="s">
+      <c r="A697" s="1" t="s">
         <v>660</v>
       </c>
     </row>
@@ -8137,962 +9886,962 @@
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A708" t="s">
+      <c r="A708" s="1" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A709" t="s">
+      <c r="A709" s="1" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A710" t="s">
+      <c r="A710" s="1" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A711" t="s">
+      <c r="A711" s="1" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A712" t="s">
+      <c r="A712" s="1" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A713" t="s">
+      <c r="A713" s="1" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A714" t="s">
+      <c r="A714" s="1" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A715" t="s">
+      <c r="A715" s="1" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A716" t="s">
+      <c r="A716" s="1" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A717" t="s">
+      <c r="A717" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A718" t="s">
+      <c r="A718" s="1" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A719" t="s">
+      <c r="A719" s="1" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A720" t="s">
+      <c r="A720" s="1" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A721" t="s">
+      <c r="A721" s="1" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A722" t="s">
+      <c r="A722" s="1" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A723" t="s">
+      <c r="A723" s="1" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A724" t="s">
+      <c r="A724" s="1" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A725" t="s">
+      <c r="A725" s="1" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A726" t="s">
+      <c r="A726" s="1" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A727" t="s">
+      <c r="A727" s="1" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A728" t="s">
+      <c r="A728" s="1" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A729" t="s">
+      <c r="A729" s="1" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A730" t="s">
+      <c r="A730" s="1" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A731" t="s">
+      <c r="A731" s="1" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A732" t="s">
+      <c r="A732" s="1" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A733" t="s">
+      <c r="A733" s="1" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A734" t="s">
+      <c r="A734" s="1" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A735" t="s">
+      <c r="A735" s="1" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A736" t="s">
+      <c r="A736" s="1" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A737" t="s">
+      <c r="A737" s="1" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A738" t="s">
+      <c r="A738" s="1" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A739" t="s">
+      <c r="A739" s="1" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A740" t="s">
+      <c r="A740" s="1" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A741" t="s">
+      <c r="A741" s="1" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A742" t="s">
+      <c r="A742" s="1" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A743" t="s">
+      <c r="A743" s="1" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A744" t="s">
+      <c r="A744" s="1" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A745" t="s">
+      <c r="A745" s="1" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A746" t="s">
+      <c r="A746" s="1" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A747" t="s">
+      <c r="A747" s="1" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A748" t="s">
+      <c r="A748" s="1" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A749" t="s">
+      <c r="A749" s="1" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A750" t="s">
+      <c r="A750" s="1" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A751" t="s">
+      <c r="A751" s="1" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A752" t="s">
+      <c r="A752" s="1" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A753" t="s">
+      <c r="A753" s="1" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A754" t="s">
+      <c r="A754" s="1" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A755" t="s">
+      <c r="A755" s="1" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A756" t="s">
+      <c r="A756" s="1" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A757" t="s">
+      <c r="A757" s="1" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A758" t="s">
+      <c r="A758" s="1" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A759" t="s">
+      <c r="A759" s="1" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A760" t="s">
+      <c r="A760" s="1" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A761" t="s">
+      <c r="A761" s="1" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A762" t="s">
+      <c r="A762" s="1" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A763" t="s">
+      <c r="A763" s="1" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A764" t="s">
+      <c r="A764" s="1" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A765" t="s">
+      <c r="A765" s="1" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A766" t="s">
+      <c r="A766" s="1" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A767" t="s">
+      <c r="A767" s="1" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A768" t="s">
+      <c r="A768" s="1" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A769" t="s">
+      <c r="A769" s="1" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A770" t="s">
+      <c r="A770" s="1" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A771" t="s">
+      <c r="A771" s="1" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A772" t="s">
+      <c r="A772" s="1" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A773" t="s">
+      <c r="A773" s="1" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A774" t="s">
+      <c r="A774" s="1" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A775" t="s">
+      <c r="A775" s="1" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A776" t="s">
+      <c r="A776" s="1" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A777" t="s">
+      <c r="A777" s="1" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A778" t="s">
+      <c r="A778" s="1" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A779" t="s">
+      <c r="A779" s="1" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A780" t="s">
+      <c r="A780" s="1" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A781" t="s">
+      <c r="A781" s="1" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A782" t="s">
+      <c r="A782" s="1" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A783" t="s">
+      <c r="A783" s="1" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A784" t="s">
+      <c r="A784" s="1" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A785" t="s">
+      <c r="A785" s="1" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A786" t="s">
+      <c r="A786" s="1" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A787" t="s">
+      <c r="A787" s="1" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A788" t="s">
+      <c r="A788" s="1" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A789" t="s">
+      <c r="A789" s="1" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A790" t="s">
+      <c r="A790" s="1" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A791" t="s">
+      <c r="A791" s="1" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A792" t="s">
+      <c r="A792" s="1" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A793" t="s">
+      <c r="A793" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A794" t="s">
+      <c r="A794" s="1" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A795" t="s">
+      <c r="A795" s="1" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A796" t="s">
+      <c r="A796" s="1" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A797" t="s">
+      <c r="A797" s="1" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A798" t="s">
+      <c r="A798" s="1" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A799" t="s">
+      <c r="A799" s="1" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A800" t="s">
+      <c r="A800" s="1" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A801" t="s">
+      <c r="A801" s="1" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A802" t="s">
+      <c r="A802" s="1" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A803" t="s">
+      <c r="A803" s="1" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A804" t="s">
+      <c r="A804" s="1" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A805" t="s">
+      <c r="A805" s="1" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A806" t="s">
+      <c r="A806" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A807" t="s">
+      <c r="A807" s="1" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A808" t="s">
+      <c r="A808" s="1" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A809" t="s">
+      <c r="A809" s="1" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A810" t="s">
+      <c r="A810" s="1" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A811" t="s">
+      <c r="A811" s="1" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A812" t="s">
+      <c r="A812" s="1" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A813" t="s">
+      <c r="A813" s="1" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A814" t="s">
+      <c r="A814" s="1" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A815" t="s">
+      <c r="A815" s="1" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A816" t="s">
+      <c r="A816" s="1" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A817" t="s">
+      <c r="A817" s="1" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A818" t="s">
+      <c r="A818" s="1" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A819" t="s">
+      <c r="A819" s="1" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A820" t="s">
+      <c r="A820" s="1" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A821" t="s">
+      <c r="A821" s="1" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A822" t="s">
+      <c r="A822" s="1" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A823" t="s">
+      <c r="A823" s="1" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A824" t="s">
+      <c r="A824" s="1" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A825" t="s">
+      <c r="A825" s="1" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A826" t="s">
+      <c r="A826" s="1" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A827" t="s">
+      <c r="A827" s="1" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A828" t="s">
+      <c r="A828" s="1" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A829" t="s">
+      <c r="A829" s="1" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A830" t="s">
+      <c r="A830" s="1" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A831" t="s">
+      <c r="A831" s="1" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A832" t="s">
+      <c r="A832" s="1" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A833" t="s">
+      <c r="A833" s="1" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A834" t="s">
+      <c r="A834" s="1" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A835" t="s">
+      <c r="A835" s="1" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A836" t="s">
+      <c r="A836" s="1" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A837" t="s">
+      <c r="A837" s="1" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A838" t="s">
+      <c r="A838" s="1" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A839" t="s">
+      <c r="A839" s="1" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A840" t="s">
+      <c r="A840" s="1" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A841" t="s">
+      <c r="A841" s="1" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A842" t="s">
+      <c r="A842" s="1" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A843" t="s">
+      <c r="A843" s="1" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A844" t="s">
+      <c r="A844" s="1" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A845" t="s">
+      <c r="A845" s="1" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A846" t="s">
+      <c r="A846" s="1" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A847" t="s">
+      <c r="A847" s="1" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A848" t="s">
+      <c r="A848" s="1" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A849" t="s">
+      <c r="A849" s="1" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A850" t="s">
+      <c r="A850" s="1" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A851" t="s">
+      <c r="A851" s="1" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A852" t="s">
+      <c r="A852" s="1" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A853" t="s">
+      <c r="A853" s="1" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A854" t="s">
+      <c r="A854" s="1" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A855" t="s">
+      <c r="A855" s="1" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A856" t="s">
+      <c r="A856" s="1" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A857" t="s">
+      <c r="A857" s="1" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A858" t="s">
+      <c r="A858" s="1" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A859" t="s">
+      <c r="A859" s="1" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A860" t="s">
+      <c r="A860" s="1" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A861" t="s">
+      <c r="A861" s="1" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A862" t="s">
+      <c r="A862" s="1" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A863" t="s">
+      <c r="A863" s="1" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A864" t="s">
+      <c r="A864" s="1" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A865" t="s">
+      <c r="A865" s="1" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A866" t="s">
+      <c r="A866" s="1" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A867" t="s">
+      <c r="A867" s="1" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A868" t="s">
+      <c r="A868" s="1" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A869" t="s">
+      <c r="A869" s="1" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A870" t="s">
+      <c r="A870" s="1" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A871" t="s">
+      <c r="A871" s="1" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A872" t="s">
+      <c r="A872" s="1" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A873" t="s">
+      <c r="A873" s="1" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A874" t="s">
+      <c r="A874" s="1" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A875" t="s">
+      <c r="A875" s="1" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A876" t="s">
+      <c r="A876" s="1" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A877" t="s">
+      <c r="A877" s="1" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A878" t="s">
+      <c r="A878" s="1" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A879" t="s">
+      <c r="A879" s="1" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A880" t="s">
+      <c r="A880" s="1" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A881" t="s">
+      <c r="A881" s="1" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A882" t="s">
+      <c r="A882" s="1" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A883" t="s">
+      <c r="A883" s="1" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A884" t="s">
+      <c r="A884" s="1" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A885" t="s">
+      <c r="A885" s="1" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A886" t="s">
+      <c r="A886" s="1" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A887" t="s">
+      <c r="A887" s="1" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A888" t="s">
+      <c r="A888" s="1" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A889" t="s">
+      <c r="A889" s="1" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A890" t="s">
+      <c r="A890" s="1" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A891" t="s">
+      <c r="A891" s="1" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A892" t="s">
+      <c r="A892" s="1" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A893" t="s">
+      <c r="A893" s="1" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A894" t="s">
+      <c r="A894" s="1" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A895" t="s">
+      <c r="A895" s="1" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A896" t="s">
+      <c r="A896" s="1" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A897" t="s">
+      <c r="A897" s="1" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A898" t="s">
+      <c r="A898" s="1" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A899" t="s">
+      <c r="A899" s="1" t="s">
         <v>860</v>
       </c>
     </row>
@@ -9102,117 +10851,117 @@
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A901" t="s">
+      <c r="A901" s="1" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A902" t="s">
+      <c r="A902" s="1" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A903" t="s">
+      <c r="A903" s="1" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A904" t="s">
+      <c r="A904" s="1" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A905" t="s">
+      <c r="A905" s="1" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A906" t="s">
+      <c r="A906" s="1" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A907" t="s">
+      <c r="A907" s="1" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A908" t="s">
+      <c r="A908" s="1" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A909" t="s">
+      <c r="A909" s="1" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A910" t="s">
+      <c r="A910" s="1" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A911" t="s">
+      <c r="A911" s="1" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A912" t="s">
+      <c r="A912" s="1" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A913" t="s">
+      <c r="A913" s="1" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A914" t="s">
+      <c r="A914" s="1" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A915" t="s">
+      <c r="A915" s="1" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A916" t="s">
+      <c r="A916" s="1" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A917" t="s">
+      <c r="A917" s="1" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A918" t="s">
+      <c r="A918" s="1" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A919" t="s">
+      <c r="A919" s="1" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A920" t="s">
+      <c r="A920" s="1" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A921" t="s">
+      <c r="A921" s="1" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A922" t="s">
+      <c r="A922" s="1" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A923" t="s">
+      <c r="A923" s="1" t="s">
         <v>879</v>
       </c>
     </row>
@@ -9222,715 +10971,712 @@
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A925" t="s">
+      <c r="A925" s="1" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A926" t="s">
+      <c r="A926" s="1" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A927" t="s">
+      <c r="A927" s="1" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A928" t="s">
+      <c r="A928" s="1" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A929" t="s">
+      <c r="A929" s="1" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A930" t="s">
+      <c r="A930" s="1" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A931" t="s">
+      <c r="A931" s="1" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A932" t="s">
+      <c r="A932" s="1" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A933" t="s">
+      <c r="A933" s="1" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A934" t="s">
+      <c r="A934" s="1" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A935" t="s">
+      <c r="A935" s="1" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A936" t="s">
+      <c r="A936" s="1" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A937" t="s">
+      <c r="A937" s="1" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A938" t="s">
+      <c r="A938" s="1" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A939" t="s">
+      <c r="A939" s="1" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A940" t="s">
+      <c r="A940" s="1" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A941" t="s">
+      <c r="A941" s="1" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A942" t="s">
+      <c r="A942" s="1" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A943" t="s">
+      <c r="A943" s="1" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A944" t="s">
+      <c r="A944" s="1" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A945" t="s">
+      <c r="A945" s="1" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A946" t="s">
+      <c r="A946" s="1" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A947" t="s">
+      <c r="A947" s="1" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A948" t="s">
+      <c r="A948" s="1" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A949" t="s">
+      <c r="A949" s="1" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A950" t="s">
+      <c r="A950" s="1" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A951" t="s">
+      <c r="A951" s="1" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A952" t="s">
+      <c r="A952" s="1" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A953" t="s">
+      <c r="A953" s="1" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A954" t="s">
+      <c r="A954" s="1" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A955" t="s">
+      <c r="A955" s="1" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A956"/>
-    </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A957" t="s">
+      <c r="A957" s="1" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A958" t="s">
+      <c r="A958" s="1" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A959" t="s">
+      <c r="A959" s="1" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A960" t="s">
+      <c r="A960" s="1" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A961" t="s">
+      <c r="A961" s="1" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A962" t="s">
+      <c r="A962" s="1" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A963" t="s">
+      <c r="A963" s="1" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A964" t="s">
+      <c r="A964" s="1" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A965" t="s">
+      <c r="A965" s="1" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A966" t="s">
+      <c r="A966" s="1" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A967" t="s">
+      <c r="A967" s="1" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A968" t="s">
+      <c r="A968" s="1" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A969" t="s">
+      <c r="A969" s="1" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A970" t="s">
+      <c r="A970" s="1" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A971" t="s">
+      <c r="A971" s="1" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A972" t="s">
+      <c r="A972" s="1" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A973" t="s">
+      <c r="A973" s="1" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A974" t="s">
+      <c r="A974" s="1" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A975" t="s">
+      <c r="A975" s="1" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A976" t="s">
+      <c r="A976" s="1" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A977" t="s">
+      <c r="A977" s="1" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A978" t="s">
+      <c r="A978" s="1" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A979" t="s">
+      <c r="A979" s="1" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A980" t="s">
+      <c r="A980" s="1" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A981" t="s">
+      <c r="A981" s="1" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A982" t="s">
+      <c r="A982" s="1" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A983" t="s">
+      <c r="A983" s="1" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A984" t="s">
+      <c r="A984" s="1" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A985" t="s">
+      <c r="A985" s="1" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A986" t="s">
+      <c r="A986" s="1" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A987" t="s">
+      <c r="A987" s="1" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A988" t="s">
+      <c r="A988" s="1" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A989" t="s">
+      <c r="A989" s="1" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A990" t="s">
+      <c r="A990" s="1" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A991" t="s">
+      <c r="A991" s="1" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A992" t="s">
+      <c r="A992" s="1" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A993" t="s">
+      <c r="A993" s="1" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A994" t="s">
+      <c r="A994" s="1" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A995" t="s">
+      <c r="A995" s="1" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A996" t="s">
+      <c r="A996" s="1" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A997" t="s">
+      <c r="A997" s="1" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A998" t="s">
+      <c r="A998" s="1" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A999" t="s">
+      <c r="A999" s="1" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1000" t="s">
+      <c r="A1000" s="1" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1001" t="s">
+      <c r="A1001" s="1" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1002" t="s">
+      <c r="A1002" s="1" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1003" t="s">
+      <c r="A1003" s="1" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1004" t="s">
+      <c r="A1004" s="1" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1005" t="s">
+      <c r="A1005" s="1" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1006" t="s">
+      <c r="A1006" s="1" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1007" t="s">
+      <c r="A1007" s="1" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1008" t="s">
+      <c r="A1008" s="1" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1009" t="s">
+      <c r="A1009" s="1" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1010" t="s">
+      <c r="A1010" s="1" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1011" t="s">
+      <c r="A1011" s="1" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1012" t="s">
+      <c r="A1012" s="1" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1013" t="s">
+      <c r="A1013" s="1" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1014" t="s">
+      <c r="A1014" s="1" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1015" t="s">
+      <c r="A1015" s="1" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1016" t="s">
+      <c r="A1016" s="1" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1017" t="s">
+      <c r="A1017" s="1" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1018" t="s">
+      <c r="A1018" s="1" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1019" t="s">
+      <c r="A1019" s="1" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1020" t="s">
+      <c r="A1020" s="1" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1021" t="s">
+      <c r="A1021" s="1" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1022" t="s">
+      <c r="A1022" s="1" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1023" t="s">
+      <c r="A1023" s="1" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1024" t="s">
+      <c r="A1024" s="1" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1025" t="s">
+      <c r="A1025" s="1" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1026" t="s">
+      <c r="A1026" s="1" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1027" t="s">
+      <c r="A1027" s="1" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1028" t="s">
+      <c r="A1028" s="1" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1029" t="s">
+      <c r="A1029" s="1" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1030" t="s">
+      <c r="A1030" s="1" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1031" t="s">
+      <c r="A1031" s="1" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1032" t="s">
+      <c r="A1032" s="1" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1033" t="s">
+      <c r="A1033" s="1" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1034" t="s">
+      <c r="A1034" s="1" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1035" t="s">
+      <c r="A1035" s="1" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1036" t="s">
+      <c r="A1036" s="1" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1037" t="s">
+      <c r="A1037" s="1" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1038" t="s">
+      <c r="A1038" s="1" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1039" t="s">
+      <c r="A1039" s="1" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1040" t="s">
+      <c r="A1040" s="1" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1041" t="s">
+      <c r="A1041" s="1" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1042" t="s">
+      <c r="A1042" s="1" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1043" t="s">
+      <c r="A1043" s="1" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1044" t="s">
+      <c r="A1044" s="1" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1045" t="s">
+      <c r="A1045" s="1" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1046" t="s">
+      <c r="A1046" s="1" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1047" t="s">
+      <c r="A1047" s="1" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1048" t="s">
+      <c r="A1048" s="1" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1049" t="s">
+      <c r="A1049" s="1" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1050" t="s">
+      <c r="A1050" s="1" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1051" t="s">
+      <c r="A1051" s="1" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1052" t="s">
+      <c r="A1052" s="1" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1053" t="s">
+      <c r="A1053" s="1" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1054" t="s">
+      <c r="A1054" s="1" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1055" t="s">
+      <c r="A1055" s="1" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1056" t="s">
+      <c r="A1056" s="1" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1057" t="s">
+      <c r="A1057" s="1" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1058" t="s">
+      <c r="A1058" s="1" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1059" t="s">
+      <c r="A1059" s="1" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1060" t="s">
+      <c r="A1060" s="1" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1061" t="s">
+      <c r="A1061" s="1" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1062" t="s">
+      <c r="A1062" s="1" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1063" t="s">
+      <c r="A1063" s="1" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1064" t="s">
+      <c r="A1064" s="1" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1065" t="s">
+      <c r="A1065" s="1" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1066" t="s">
+      <c r="A1066" s="1" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1067" t="s">
+      <c r="A1067" s="1" t="s">
         <v>959</v>
       </c>
     </row>
@@ -11420,57 +13166,57 @@
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1365" t="s">
+      <c r="A1365" s="1" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1366" t="s">
+      <c r="A1366" s="1" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1367" t="s">
+      <c r="A1367" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1368" t="s">
+      <c r="A1368" s="1" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1369" t="s">
+      <c r="A1369" s="1" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1370" t="s">
+      <c r="A1370" s="1" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1371" t="s">
+      <c r="A1371" s="1" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1372" t="s">
+      <c r="A1372" s="1" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1373" t="s">
+      <c r="A1373" s="1" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1374" t="s">
+      <c r="A1374" s="1" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1375" t="s">
+      <c r="A1375" s="1" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -11845,51 +13591,3190 @@
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1450" t="s">
+      <c r="A1450" s="1" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1451" t="s">
+      <c r="A1451" s="1" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1452" t="s">
+      <c r="A1452" s="1" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1453" t="s">
+      <c r="A1453" s="1" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1454" t="s">
+      <c r="A1454" s="1" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1455" t="s">
+      <c r="A1455" s="1" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1456" t="s">
+      <c r="A1456" s="1" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1457" t="s">
+      <c r="A1457" s="1" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1458" t="s">
+      <c r="A1458" s="1" t="s">
         <v>1375</v>
       </c>
     </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1459" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1460" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1461" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1462" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1463" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1464" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1465" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1469" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1470" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1471" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1472" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1473" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1474" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1475" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1476" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1477" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1478" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1479" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1480" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1481" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1482" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1483" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1484" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1485" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1486" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1487" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1488" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1489" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1490" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1491" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1492" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1493" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1494" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1495" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1496" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1497" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1498" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1499" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1500" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1501" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1502" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1503" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1504" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1505" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1506" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1507" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1508" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1509" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1510" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1511" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1512" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1513" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1514" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1515" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1516" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1517" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1518" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1519" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1520" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1521" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1522" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1523" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1524" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1525" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1526" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1527" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1528" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1529" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1530" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1531" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1532" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1533" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1534" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1535" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1536" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1537" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1538" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1539" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1540" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1541" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1542" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1543" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1544" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1545" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1546" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1547" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1548" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1549" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1550" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1551" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1552" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1553" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1554" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1555" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1556" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1557" s="1" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1558" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1559" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1560" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1561" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1562" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1563" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1564" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1565" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1566" s="1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1567" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1568" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1569" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1570" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1571" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1572" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1573" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1574" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1575" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1576" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1577" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1578" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1579" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1580" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1581" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1582" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1583" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1584" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1585" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1586" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1587" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1588" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1589" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1590" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1591" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1592" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1593" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1594" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1595" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1596" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1597" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1598" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1599" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1600" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1601" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1602" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1603" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1604" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1605" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1606" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1607" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1608" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1609" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1610" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1611" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1612" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1613" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1614" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1615" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1616" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1617" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1618" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1619" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1620" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1621" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1622" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1623" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1624" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1625" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1626" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1627" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1628" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1629" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1630" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1631" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1632" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1633" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1634" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1635" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1636" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1637" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1638" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1639" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1640" s="1" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1641" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1642" s="1" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1643" s="1" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1644" s="1" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1645" s="1" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1646" s="1" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1647" s="1" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1648" s="1" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1649" s="1" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1650" s="1" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1651" s="1" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1652" s="1" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1653" s="1" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1654" s="1" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1655" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1656" s="1" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1657" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1658" s="1" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1659" s="1" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1660" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1661" s="1" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1662" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1663" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1664" s="1" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1665" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1666" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1667" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1668" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1669" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1670" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1671" s="1" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1672" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1673" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1674" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1675" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1676" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1677" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1678" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1679" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1680" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1681" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1682" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1683" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1684" s="1" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1685" s="1" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1686" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1687" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1688" s="1" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1689" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1690" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1691" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1692" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1693" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1694" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1695" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1696" s="1" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1697" s="1" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1698" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1699" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1700" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1701" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1702" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1703" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1704" s="1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1705" s="1" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1706" s="1" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1707" s="1" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1708" s="1" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1709" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1710" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1711" s="1" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1712" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1713" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1714" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1715" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1716" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1717" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1718" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1719" s="1" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1720" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1721" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1722" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1723" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1724" s="1" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1725" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1726" s="1" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1727" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1728" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1729" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1730" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1731" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1732" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1733" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1734" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1735" s="1" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1736" s="1" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1737" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1738" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1739" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1740" s="1" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1741" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1742" s="1" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1743" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1744" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1745" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1746" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1747" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1748" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1749" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1750" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1751" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1752" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1753" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1754" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1755" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1756" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1757" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1758" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1759" s="1" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1760" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1761" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1762" s="1" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1763" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1764" s="1" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1765" s="1" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1766" s="1" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1767" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1768" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1769" s="1" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1770" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1771" s="1" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1772" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1773" s="1" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1774" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1775" s="1" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1776" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1777" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1778" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1779" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1780" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1781" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1782" s="1" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1783" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1784" s="1" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1785" s="1" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1786" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1787" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1788" s="1" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1789" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1790" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1791" s="1" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1792" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1793" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1794" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1795" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1796" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1797" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1798" s="1" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1799" s="1" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1800" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1801" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1802" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1803" s="1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1804" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1805" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1806" s="1" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1807" s="1" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1808" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1809" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1810" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1811" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1812" s="1" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1813" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1814" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1815" s="1" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1816" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1817" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1818" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1819" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1820" s="1" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1821" s="1" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1822" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1823" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1824" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1825" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1826" s="1" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1827" s="1" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1828" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1829" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1830" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1831" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1832" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1833" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1834" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1835" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1836" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1837" s="1" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1838" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1839" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1840" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1841" s="1" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1842" s="1" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1843" s="1" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1844" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1845" s="1" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1846" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1847" s="1" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1848" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1849" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1850" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1851" s="1" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1852" s="1" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1853" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1854" s="1" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1855" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1856" s="1" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1857" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1858" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1859" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1860" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1861" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1862" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1863" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1864" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1865" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1866" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1867" s="1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1868" s="1" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1869" s="1" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1870" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1871" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1872" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1873" s="1" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1874" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1875" s="1" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1876" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1877" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1878" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1879" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1880" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1881" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1882" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1883" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1884" s="1" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1885" s="1" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1886" s="1" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1887" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1888" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1889" s="1" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1890" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1891" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1892" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1893" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1894" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1895" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1896" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1897" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1898" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1899" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1900" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1901" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1902" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1903" s="1" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1904" s="1" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1905" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1906" s="1" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1907" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1908" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1909" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1910" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1911" s="1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1912" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1913" s="1" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1914" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1915" s="1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1916" s="1" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1917" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1918" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1919" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1920" s="1" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1921" s="1" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1922" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1923" s="1" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1924" s="1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1925" s="1" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1926" s="1" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1927" s="1" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1928" s="1" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1929" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1930" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1931" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1932" s="1" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1933" s="1" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1934" s="1" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1935" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1936" s="1" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1937" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1938" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1939" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1940" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1941" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1942" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1943" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1944" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1945" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1946" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1947" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1948" s="1" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1949" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1950" s="1" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1951" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1952" s="1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1953" s="1" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1954" s="1" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1955" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1956" s="1" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1957" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1958" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1959" s="1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1960" s="1" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1961" s="1" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1962" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1963" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1964" s="1" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1965" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1966" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1967" s="1" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1968" s="1" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1969" s="1" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1970" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1971" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1972" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1973" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1974" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1975" s="1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1976" s="1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1977" s="1" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1978" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1979" s="1" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1980" s="1" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1981" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1982" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1983" s="1" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1984" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1985" s="1" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1986" s="1" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1987" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1988" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1989" s="1" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1990" s="1" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1991" s="1" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1992" s="1" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1993" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1994" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1995" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1996" s="1" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1997" s="1" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1998" s="1" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1999" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2000" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2001" s="1" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2002" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2003" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2004" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2005" s="1" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2006" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2007" s="1" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2008" s="1" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2009" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2010" s="1" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2011" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2012" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2013" s="1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2014" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2015" s="1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2016" s="1" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2017" s="1" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2018" s="1" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2019" s="1" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2020" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2021" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2022" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2023" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2024" s="1" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2025" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2026" s="1" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2027" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2028" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2029" s="1" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2030" s="1" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2031" s="1" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2032" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2033" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2034" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2035" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2036" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2037" s="1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2038" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2039" s="1" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2040" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2041" s="1" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2042" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2043" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2044" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2045" s="1" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2046" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2047" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2048" s="1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2049" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2050" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2051" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2052" s="1" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2053" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2054" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2055" s="1" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2056" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2057" s="1" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2058" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2059" s="1" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2060" s="1" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2061" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2062" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2063" s="1" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2064" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2065" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2066" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2067" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2068" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2069" s="1" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2070" s="1" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2071" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2072" s="1" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2073" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2074" s="1" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2075" s="1" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2076" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2077" s="1" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2078" s="1" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2079" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2080" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2081" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2082" s="1" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2083" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2084" s="1" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2085" s="1" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2086" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2087" s="1" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2088" s="1" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="2653" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState ref="A1639:A2840">
+    <sortCondition ref="A2840"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
